--- a/Peak_Reflected_Pressure/MAE.xlsx
+++ b/Peak_Reflected_Pressure/MAE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C428"/>
+  <dimension ref="A1:C434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,10 +455,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>802.607421875</v>
+        <v>403.6746215820312</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.752563476562</v>
+        <v>413.7960205078125</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>803.2296142578125</v>
+        <v>321.5096130371094</v>
       </c>
       <c r="C3" t="n">
-        <v>1365.331909179688</v>
+        <v>280.7437744140625</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>766.6275634765625</v>
+        <v>212.7866363525391</v>
       </c>
       <c r="C4" t="n">
-        <v>1022.047912597656</v>
+        <v>220.1444396972656</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>650.5205688476562</v>
+        <v>175.1144561767578</v>
       </c>
       <c r="C5" t="n">
-        <v>895.3836059570312</v>
+        <v>160.3050384521484</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>526.0100708007812</v>
+        <v>142.8470764160156</v>
       </c>
       <c r="C6" t="n">
-        <v>785.1777954101562</v>
+        <v>140.2254638671875</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>462.4185791015625</v>
+        <v>121.4866180419922</v>
       </c>
       <c r="C7" t="n">
-        <v>692.703857421875</v>
+        <v>121.7633285522461</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>408.474609375</v>
+        <v>107.8197860717773</v>
       </c>
       <c r="C8" t="n">
-        <v>669.5881958007812</v>
+        <v>102.5695953369141</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>417.3932495117188</v>
+        <v>96.50308990478516</v>
       </c>
       <c r="C9" t="n">
-        <v>626.5925903320312</v>
+        <v>97.83850860595703</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>383.7333374023438</v>
+        <v>90.86637115478516</v>
       </c>
       <c r="C10" t="n">
-        <v>655.0437622070312</v>
+        <v>94.68014526367188</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>371.8888244628906</v>
+        <v>91.69822692871094</v>
       </c>
       <c r="C11" t="n">
-        <v>585.8436889648438</v>
+        <v>110.3169250488281</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>341.1476440429688</v>
+        <v>90.3770751953125</v>
       </c>
       <c r="C12" t="n">
-        <v>582.319091796875</v>
+        <v>104.3036651611328</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>358.4241943359375</v>
+        <v>84.40895843505859</v>
       </c>
       <c r="C13" t="n">
-        <v>541.0452880859375</v>
+        <v>102.4967651367188</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>341.7350769042969</v>
+        <v>84.42395782470703</v>
       </c>
       <c r="C14" t="n">
-        <v>554.6689453125</v>
+        <v>97.80641937255859</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>340.2874755859375</v>
+        <v>81.57781219482422</v>
       </c>
       <c r="C15" t="n">
-        <v>526.4146728515625</v>
+        <v>89.49627685546875</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>329.6702880859375</v>
+        <v>84.08926391601562</v>
       </c>
       <c r="C16" t="n">
-        <v>521.048828125</v>
+        <v>88.26315307617188</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>335.2872314453125</v>
+        <v>78.97051239013672</v>
       </c>
       <c r="C17" t="n">
-        <v>536.9058837890625</v>
+        <v>139.1870880126953</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>323.2442321777344</v>
+        <v>80.20250701904297</v>
       </c>
       <c r="C18" t="n">
-        <v>531.395263671875</v>
+        <v>84.50687408447266</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>322.4064636230469</v>
+        <v>76.13692474365234</v>
       </c>
       <c r="C19" t="n">
-        <v>600.3900146484375</v>
+        <v>99.92814636230469</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>302.9163513183594</v>
+        <v>73.03687286376953</v>
       </c>
       <c r="C20" t="n">
-        <v>501.7688903808594</v>
+        <v>81.48213195800781</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>299.9573364257812</v>
+        <v>81.42006683349609</v>
       </c>
       <c r="C21" t="n">
-        <v>474.6171264648438</v>
+        <v>82.80799865722656</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>273.9208984375</v>
+        <v>76.39452362060547</v>
       </c>
       <c r="C22" t="n">
-        <v>475.4320983886719</v>
+        <v>79.4884033203125</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>271.8052978515625</v>
+        <v>77.54499053955078</v>
       </c>
       <c r="C23" t="n">
-        <v>438.752197265625</v>
+        <v>85.77845001220703</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>288.8078918457031</v>
+        <v>74.71367645263672</v>
       </c>
       <c r="C24" t="n">
-        <v>436.9996337890625</v>
+        <v>74.02998352050781</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>268.6052551269531</v>
+        <v>76.07593536376953</v>
       </c>
       <c r="C25" t="n">
-        <v>477.806396484375</v>
+        <v>72.57483673095703</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>260.2815246582031</v>
+        <v>73.91001129150391</v>
       </c>
       <c r="C26" t="n">
-        <v>459.1800537109375</v>
+        <v>72.04618072509766</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>247.0341644287109</v>
+        <v>75.03311157226562</v>
       </c>
       <c r="C27" t="n">
-        <v>468.1658325195312</v>
+        <v>86.50940704345703</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>263.1211547851562</v>
+        <v>66.77309417724609</v>
       </c>
       <c r="C28" t="n">
-        <v>454.0819702148438</v>
+        <v>69.31333160400391</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>245.6785278320312</v>
+        <v>68.88878631591797</v>
       </c>
       <c r="C29" t="n">
-        <v>413.3162841796875</v>
+        <v>70.61697387695312</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>228.5309448242188</v>
+        <v>71.80906677246094</v>
       </c>
       <c r="C30" t="n">
-        <v>403.974609375</v>
+        <v>117.8130416870117</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>237.2574615478516</v>
+        <v>74.94925689697266</v>
       </c>
       <c r="C31" t="n">
-        <v>390.3244018554688</v>
+        <v>64.44681549072266</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>243.6193389892578</v>
+        <v>65.89433288574219</v>
       </c>
       <c r="C32" t="n">
-        <v>397.308349609375</v>
+        <v>62.46509552001953</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>225.3976287841797</v>
+        <v>61.69257354736328</v>
       </c>
       <c r="C33" t="n">
-        <v>392.1609191894531</v>
+        <v>65.0032958984375</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>228.0848541259766</v>
+        <v>65.12641906738281</v>
       </c>
       <c r="C34" t="n">
-        <v>370.9832458496094</v>
+        <v>60.2714958190918</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>201.7115936279297</v>
+        <v>62.53127288818359</v>
       </c>
       <c r="C35" t="n">
-        <v>382.8246154785156</v>
+        <v>51.09188842773438</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>209.6909942626953</v>
+        <v>56.10158920288086</v>
       </c>
       <c r="C36" t="n">
-        <v>399.49267578125</v>
+        <v>51.14242553710938</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>199.5702362060547</v>
+        <v>56.36482620239258</v>
       </c>
       <c r="C37" t="n">
-        <v>361.9894714355469</v>
+        <v>58.58864974975586</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>207.5088806152344</v>
+        <v>56.84056854248047</v>
       </c>
       <c r="C38" t="n">
-        <v>364.0638427734375</v>
+        <v>49.63837432861328</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>201.6195831298828</v>
+        <v>58.63394546508789</v>
       </c>
       <c r="C39" t="n">
-        <v>414.6890563964844</v>
+        <v>50.37485504150391</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>234.840576171875</v>
+        <v>60.82772064208984</v>
       </c>
       <c r="C40" t="n">
-        <v>503.5514831542969</v>
+        <v>85.44560241699219</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>266.36767578125</v>
+        <v>59.61651992797852</v>
       </c>
       <c r="C41" t="n">
-        <v>463.9863586425781</v>
+        <v>57.81604385375977</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>237.4637603759766</v>
+        <v>60.39643859863281</v>
       </c>
       <c r="C42" t="n">
-        <v>416.1739196777344</v>
+        <v>72.04795837402344</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>192.1096038818359</v>
+        <v>64.43701934814453</v>
       </c>
       <c r="C43" t="n">
-        <v>361.5263977050781</v>
+        <v>56.41778945922852</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>177.3699340820312</v>
+        <v>55.75442886352539</v>
       </c>
       <c r="C44" t="n">
-        <v>335.1998901367188</v>
+        <v>75.13454437255859</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>211.3807525634766</v>
+        <v>66.27383422851562</v>
       </c>
       <c r="C45" t="n">
-        <v>357.4681091308594</v>
+        <v>50.89774703979492</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>183.8505401611328</v>
+        <v>55.82073974609375</v>
       </c>
       <c r="C46" t="n">
-        <v>372.8770141601562</v>
+        <v>55.96327590942383</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>186.2968292236328</v>
+        <v>58.55292510986328</v>
       </c>
       <c r="C47" t="n">
-        <v>328.7421264648438</v>
+        <v>49.90823745727539</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>214.9657287597656</v>
+        <v>67.35837554931641</v>
       </c>
       <c r="C48" t="n">
-        <v>414.7764282226562</v>
+        <v>52.83669281005859</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>236.1612396240234</v>
+        <v>59.51911163330078</v>
       </c>
       <c r="C49" t="n">
-        <v>382.8671264648438</v>
+        <v>66.13976287841797</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>227.3374328613281</v>
+        <v>54.99689865112305</v>
       </c>
       <c r="C50" t="n">
-        <v>463.3633117675781</v>
+        <v>67.09783935546875</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +994,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>210.7083435058594</v>
+        <v>59.65259552001953</v>
       </c>
       <c r="C51" t="n">
-        <v>405.6238098144531</v>
+        <v>58.89333724975586</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>176.7667388916016</v>
+        <v>56.64899826049805</v>
       </c>
       <c r="C52" t="n">
-        <v>325.3084411621094</v>
+        <v>50.13194274902344</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>165.0734558105469</v>
+        <v>56.63701629638672</v>
       </c>
       <c r="C53" t="n">
-        <v>338.9757995605469</v>
+        <v>62.20944595336914</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>176.5142517089844</v>
+        <v>58.65755462646484</v>
       </c>
       <c r="C54" t="n">
-        <v>391.4226379394531</v>
+        <v>61.17119979858398</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>324.8746948242188</v>
+        <v>54.68124008178711</v>
       </c>
       <c r="C55" t="n">
-        <v>717.7474975585938</v>
+        <v>47.26132202148438</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>402.4660034179688</v>
+        <v>49.96651458740234</v>
       </c>
       <c r="C56" t="n">
-        <v>406.0259094238281</v>
+        <v>52.44782257080078</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>248.6382446289062</v>
+        <v>50.86749267578125</v>
       </c>
       <c r="C57" t="n">
-        <v>382.9102783203125</v>
+        <v>41.97856521606445</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>211.4241790771484</v>
+        <v>53.19287109375</v>
       </c>
       <c r="C58" t="n">
-        <v>362.2606506347656</v>
+        <v>49.0942497253418</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>185.4705200195312</v>
+        <v>55.19064712524414</v>
       </c>
       <c r="C59" t="n">
-        <v>380.1213989257812</v>
+        <v>42.83266067504883</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>178.2309112548828</v>
+        <v>58.76919937133789</v>
       </c>
       <c r="C60" t="n">
-        <v>340.5323791503906</v>
+        <v>48.39064025878906</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>166.5523376464844</v>
+        <v>57.70503616333008</v>
       </c>
       <c r="C61" t="n">
-        <v>334.5494995117188</v>
+        <v>65.75828552246094</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>154.7503509521484</v>
+        <v>61.4171142578125</v>
       </c>
       <c r="C62" t="n">
-        <v>321.7976684570312</v>
+        <v>53.36820602416992</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>152.9498901367188</v>
+        <v>56.19927215576172</v>
       </c>
       <c r="C63" t="n">
-        <v>318.3079833984375</v>
+        <v>61.24592590332031</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>134.9187622070312</v>
+        <v>51.31547546386719</v>
       </c>
       <c r="C64" t="n">
-        <v>306.98095703125</v>
+        <v>51.94141387939453</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>135.1912384033203</v>
+        <v>53.88056182861328</v>
       </c>
       <c r="C65" t="n">
-        <v>315.0850219726562</v>
+        <v>59.44732666015625</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>138.3265228271484</v>
+        <v>53.84070587158203</v>
       </c>
       <c r="C66" t="n">
-        <v>308.6117248535156</v>
+        <v>94.61720275878906</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>129.2657470703125</v>
+        <v>52.43325424194336</v>
       </c>
       <c r="C67" t="n">
-        <v>293.3933715820312</v>
+        <v>45.96351623535156</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>130.5276794433594</v>
+        <v>50.55706405639648</v>
       </c>
       <c r="C68" t="n">
-        <v>320.9492797851562</v>
+        <v>53.5297966003418</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>138.5394744873047</v>
+        <v>53.67641067504883</v>
       </c>
       <c r="C69" t="n">
-        <v>298.0765991210938</v>
+        <v>51.66406631469727</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>140.0514678955078</v>
+        <v>50.89989852905273</v>
       </c>
       <c r="C70" t="n">
-        <v>309.420166015625</v>
+        <v>43.7490348815918</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1214,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>128.4739990234375</v>
+        <v>52.78255081176758</v>
       </c>
       <c r="C71" t="n">
-        <v>324.016845703125</v>
+        <v>73.26538848876953</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1225,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>144.9336853027344</v>
+        <v>53.18066787719727</v>
       </c>
       <c r="C72" t="n">
-        <v>342.36376953125</v>
+        <v>52.19694900512695</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1236,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>164.1961059570312</v>
+        <v>56.45180130004883</v>
       </c>
       <c r="C73" t="n">
-        <v>397.28076171875</v>
+        <v>68.33599090576172</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1247,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>168.7007598876953</v>
+        <v>48.25761032104492</v>
       </c>
       <c r="C74" t="n">
-        <v>318.6016845703125</v>
+        <v>67.69903564453125</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>179.4586486816406</v>
+        <v>55.36041259765625</v>
       </c>
       <c r="C75" t="n">
-        <v>381.9281311035156</v>
+        <v>47.39638137817383</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1269,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>157.4349822998047</v>
+        <v>55.34335327148438</v>
       </c>
       <c r="C76" t="n">
-        <v>343.9795837402344</v>
+        <v>60.74778747558594</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1280,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>160.2149047851562</v>
+        <v>55.4517707824707</v>
       </c>
       <c r="C77" t="n">
-        <v>297.6920471191406</v>
+        <v>74.32276153564453</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1291,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>140.0201721191406</v>
+        <v>49.55206298828125</v>
       </c>
       <c r="C78" t="n">
-        <v>287.2604675292969</v>
+        <v>52.0079231262207</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1302,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>127.4680938720703</v>
+        <v>53.48480987548828</v>
       </c>
       <c r="C79" t="n">
-        <v>326.276611328125</v>
+        <v>41.67319488525391</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>172.1732940673828</v>
+        <v>51.612060546875</v>
       </c>
       <c r="C80" t="n">
-        <v>302.4069213867188</v>
+        <v>62.90600967407227</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>313.4751586914062</v>
+        <v>52.90872955322266</v>
       </c>
       <c r="C81" t="n">
-        <v>373.884521484375</v>
+        <v>67.99657440185547</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>375.4869995117188</v>
+        <v>53.25455093383789</v>
       </c>
       <c r="C82" t="n">
-        <v>433.6063537597656</v>
+        <v>61.6097297668457</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>243.7928466796875</v>
+        <v>55.72087478637695</v>
       </c>
       <c r="C83" t="n">
-        <v>443.4779357910156</v>
+        <v>47.98446655273438</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>204.4179534912109</v>
+        <v>48.95244598388672</v>
       </c>
       <c r="C84" t="n">
-        <v>352.9573974609375</v>
+        <v>48.02500152587891</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>169.8751068115234</v>
+        <v>52.0097770690918</v>
       </c>
       <c r="C85" t="n">
-        <v>325.652587890625</v>
+        <v>42.36029815673828</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1379,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>142.1768035888672</v>
+        <v>50.44191360473633</v>
       </c>
       <c r="C86" t="n">
-        <v>308.8378295898438</v>
+        <v>42.8290901184082</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1390,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>130.6091613769531</v>
+        <v>57.38691711425781</v>
       </c>
       <c r="C87" t="n">
-        <v>335.4542236328125</v>
+        <v>84.36212158203125</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1401,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>132.1120452880859</v>
+        <v>58.11329650878906</v>
       </c>
       <c r="C88" t="n">
-        <v>303.6614074707031</v>
+        <v>44.13647842407227</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1412,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>125.9695358276367</v>
+        <v>48.76761245727539</v>
       </c>
       <c r="C89" t="n">
-        <v>311.9601135253906</v>
+        <v>45.83671569824219</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1423,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>125.9096755981445</v>
+        <v>47.79751205444336</v>
       </c>
       <c r="C90" t="n">
-        <v>292.3087158203125</v>
+        <v>54.59245300292969</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1434,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>121.8851852416992</v>
+        <v>52.52827453613281</v>
       </c>
       <c r="C91" t="n">
-        <v>296.8299865722656</v>
+        <v>67.21034240722656</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>113.7983474731445</v>
+        <v>52.82454299926758</v>
       </c>
       <c r="C92" t="n">
-        <v>285.3890380859375</v>
+        <v>42.80376052856445</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>113.1243057250977</v>
+        <v>53.6498908996582</v>
       </c>
       <c r="C93" t="n">
-        <v>286.193359375</v>
+        <v>52.74363327026367</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>113.4568634033203</v>
+        <v>51.03812408447266</v>
       </c>
       <c r="C94" t="n">
-        <v>303.3855285644531</v>
+        <v>48.17148590087891</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>164.2012481689453</v>
+        <v>50.70595169067383</v>
       </c>
       <c r="C95" t="n">
-        <v>305.1984558105469</v>
+        <v>45.48258972167969</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>127.0878295898438</v>
+        <v>47.44832611083984</v>
       </c>
       <c r="C96" t="n">
-        <v>292.109619140625</v>
+        <v>69.18688201904297</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1500,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>116.1730651855469</v>
+        <v>51.67213821411133</v>
       </c>
       <c r="C97" t="n">
-        <v>298.0507507324219</v>
+        <v>57.84726715087891</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1511,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>127.0210418701172</v>
+        <v>48.60266876220703</v>
       </c>
       <c r="C98" t="n">
-        <v>287.0529479980469</v>
+        <v>52.71756362915039</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>123.3737564086914</v>
+        <v>49.61183547973633</v>
       </c>
       <c r="C99" t="n">
-        <v>283.1381225585938</v>
+        <v>44.58354187011719</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1533,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>110.4159774780273</v>
+        <v>49.80887985229492</v>
       </c>
       <c r="C100" t="n">
-        <v>281.8806457519531</v>
+        <v>58.80881881713867</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>127.6113815307617</v>
+        <v>51.09539794921875</v>
       </c>
       <c r="C101" t="n">
-        <v>306.5313720703125</v>
+        <v>47.28602600097656</v>
       </c>
     </row>
     <row r="102">
@@ -1555,10 +1555,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>137.2520446777344</v>
+        <v>52.88861846923828</v>
       </c>
       <c r="C102" t="n">
-        <v>349.8522033691406</v>
+        <v>47.7994270324707</v>
       </c>
     </row>
     <row r="103">
@@ -1566,10 +1566,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>216.2003631591797</v>
+        <v>52.60469818115234</v>
       </c>
       <c r="C103" t="n">
-        <v>298.3175048828125</v>
+        <v>49.8533821105957</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1577,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>201.4005737304688</v>
+        <v>48.52790069580078</v>
       </c>
       <c r="C104" t="n">
-        <v>353.7831420898438</v>
+        <v>48.05889129638672</v>
       </c>
     </row>
     <row r="105">
@@ -1588,10 +1588,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>186.6154174804688</v>
+        <v>44.91446685791016</v>
       </c>
       <c r="C105" t="n">
-        <v>341.0039672851562</v>
+        <v>60.93093872070312</v>
       </c>
     </row>
     <row r="106">
@@ -1599,10 +1599,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>163.3060760498047</v>
+        <v>54.36487197875977</v>
       </c>
       <c r="C106" t="n">
-        <v>327.5208129882812</v>
+        <v>56.26708602905273</v>
       </c>
     </row>
     <row r="107">
@@ -1610,10 +1610,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>142.8812713623047</v>
+        <v>59.5018196105957</v>
       </c>
       <c r="C107" t="n">
-        <v>352.256103515625</v>
+        <v>46.44861602783203</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1621,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>135.3543548583984</v>
+        <v>46.67354583740234</v>
       </c>
       <c r="C108" t="n">
-        <v>283.468505859375</v>
+        <v>49.35638046264648</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1632,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>125.7835693359375</v>
+        <v>48.83720779418945</v>
       </c>
       <c r="C109" t="n">
-        <v>301.7657165527344</v>
+        <v>46.38376617431641</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1643,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>121.9204254150391</v>
+        <v>55.20561599731445</v>
       </c>
       <c r="C110" t="n">
-        <v>278.3045349121094</v>
+        <v>60.40658950805664</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1654,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>128.4285278320312</v>
+        <v>50.39920425415039</v>
       </c>
       <c r="C111" t="n">
-        <v>295.0556335449219</v>
+        <v>50.14652633666992</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +1665,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>105.5925598144531</v>
+        <v>48.12224578857422</v>
       </c>
       <c r="C112" t="n">
-        <v>283.2381896972656</v>
+        <v>81.64248657226562</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +1676,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>108.0296249389648</v>
+        <v>44.9507942199707</v>
       </c>
       <c r="C113" t="n">
-        <v>277.3585205078125</v>
+        <v>41.17282867431641</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +1687,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>119.8197021484375</v>
+        <v>46.5640983581543</v>
       </c>
       <c r="C114" t="n">
-        <v>287.7396545410156</v>
+        <v>54.52168273925781</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1698,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>114.1364364624023</v>
+        <v>49.48367309570312</v>
       </c>
       <c r="C115" t="n">
-        <v>286.7656555175781</v>
+        <v>46.7617301940918</v>
       </c>
     </row>
     <row r="116">
@@ -1709,10 +1709,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>112.0611038208008</v>
+        <v>50.04888534545898</v>
       </c>
       <c r="C116" t="n">
-        <v>292.046875</v>
+        <v>39.51290130615234</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>120.6149520874023</v>
+        <v>43.88606643676758</v>
       </c>
       <c r="C117" t="n">
-        <v>286.5487670898438</v>
+        <v>43.20613098144531</v>
       </c>
     </row>
     <row r="118">
@@ -1731,10 +1731,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>135.0115051269531</v>
+        <v>46.98711776733398</v>
       </c>
       <c r="C118" t="n">
-        <v>303.0022888183594</v>
+        <v>49.67903900146484</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>113.8614044189453</v>
+        <v>46.0664176940918</v>
       </c>
       <c r="C119" t="n">
-        <v>287.1716918945312</v>
+        <v>74.73005676269531</v>
       </c>
     </row>
     <row r="120">
@@ -1753,10 +1753,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>105.6322402954102</v>
+        <v>47.95701599121094</v>
       </c>
       <c r="C120" t="n">
-        <v>293.3978271484375</v>
+        <v>40.34336853027344</v>
       </c>
     </row>
     <row r="121">
@@ -1764,10 +1764,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>114.5512771606445</v>
+        <v>47.9848518371582</v>
       </c>
       <c r="C121" t="n">
-        <v>278.9067687988281</v>
+        <v>45.14352035522461</v>
       </c>
     </row>
     <row r="122">
@@ -1775,10 +1775,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>102.4893264770508</v>
+        <v>46.05029296875</v>
       </c>
       <c r="C122" t="n">
-        <v>269.0364379882812</v>
+        <v>41.11763381958008</v>
       </c>
     </row>
     <row r="123">
@@ -1786,10 +1786,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>103.0071487426758</v>
+        <v>46.28986358642578</v>
       </c>
       <c r="C123" t="n">
-        <v>264.3575744628906</v>
+        <v>40.98292922973633</v>
       </c>
     </row>
     <row r="124">
@@ -1797,10 +1797,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>98.04805755615234</v>
+        <v>43.58877944946289</v>
       </c>
       <c r="C124" t="n">
-        <v>296.8930969238281</v>
+        <v>46.69135284423828</v>
       </c>
     </row>
     <row r="125">
@@ -1808,10 +1808,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>115.0419692993164</v>
+        <v>43.64828872680664</v>
       </c>
       <c r="C125" t="n">
-        <v>259.7937316894531</v>
+        <v>46.16239547729492</v>
       </c>
     </row>
     <row r="126">
@@ -1819,10 +1819,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>111.917839050293</v>
+        <v>46.10731506347656</v>
       </c>
       <c r="C126" t="n">
-        <v>272.0213317871094</v>
+        <v>38.88911437988281</v>
       </c>
     </row>
     <row r="127">
@@ -1830,10 +1830,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>99.12704467773438</v>
+        <v>46.5524787902832</v>
       </c>
       <c r="C127" t="n">
-        <v>263.6769714355469</v>
+        <v>41.06449508666992</v>
       </c>
     </row>
     <row r="128">
@@ -1841,10 +1841,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>108.8803253173828</v>
+        <v>49.56485366821289</v>
       </c>
       <c r="C128" t="n">
-        <v>285.5340576171875</v>
+        <v>44.44871139526367</v>
       </c>
     </row>
     <row r="129">
@@ -1852,10 +1852,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>130.8596801757812</v>
+        <v>46.6087646484375</v>
       </c>
       <c r="C129" t="n">
-        <v>278.2798461914062</v>
+        <v>56.56064987182617</v>
       </c>
     </row>
     <row r="130">
@@ -1863,10 +1863,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>135.6924743652344</v>
+        <v>44.61740112304688</v>
       </c>
       <c r="C130" t="n">
-        <v>326.1880798339844</v>
+        <v>52.26319885253906</v>
       </c>
     </row>
     <row r="131">
@@ -1874,10 +1874,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>132.2843017578125</v>
+        <v>46.66257858276367</v>
       </c>
       <c r="C131" t="n">
-        <v>277.8366394042969</v>
+        <v>50.98553085327148</v>
       </c>
     </row>
     <row r="132">
@@ -1885,10 +1885,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>102.6348571777344</v>
+        <v>46.99914932250977</v>
       </c>
       <c r="C132" t="n">
-        <v>264.9271545410156</v>
+        <v>41.98166656494141</v>
       </c>
     </row>
     <row r="133">
@@ -1896,10 +1896,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>95.09593200683594</v>
+        <v>45.01470565795898</v>
       </c>
       <c r="C133" t="n">
-        <v>281.2430725097656</v>
+        <v>47.65451431274414</v>
       </c>
     </row>
     <row r="134">
@@ -1907,10 +1907,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>104.4669418334961</v>
+        <v>44.00240707397461</v>
       </c>
       <c r="C134" t="n">
-        <v>278.0298461914062</v>
+        <v>37.70956420898438</v>
       </c>
     </row>
     <row r="135">
@@ -1918,10 +1918,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>96.45885467529297</v>
+        <v>42.10662460327148</v>
       </c>
       <c r="C135" t="n">
-        <v>270.1476135253906</v>
+        <v>46.0205192565918</v>
       </c>
     </row>
     <row r="136">
@@ -1929,10 +1929,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>129.7017211914062</v>
+        <v>43.87519836425781</v>
       </c>
       <c r="C136" t="n">
-        <v>334.7666015625</v>
+        <v>46.43281173706055</v>
       </c>
     </row>
     <row r="137">
@@ -1940,10 +1940,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>222.4616241455078</v>
+        <v>46.27752685546875</v>
       </c>
       <c r="C137" t="n">
-        <v>465.4779663085938</v>
+        <v>45.99311065673828</v>
       </c>
     </row>
     <row r="138">
@@ -1951,10 +1951,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>224.9319458007812</v>
+        <v>44.57749557495117</v>
       </c>
       <c r="C138" t="n">
-        <v>339.8910217285156</v>
+        <v>41.09052276611328</v>
       </c>
     </row>
     <row r="139">
@@ -1962,10 +1962,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>156.2856750488281</v>
+        <v>44.15446472167969</v>
       </c>
       <c r="C139" t="n">
-        <v>347.5669555664062</v>
+        <v>41.61787414550781</v>
       </c>
     </row>
     <row r="140">
@@ -1973,10 +1973,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>139.5976867675781</v>
+        <v>46.96538162231445</v>
       </c>
       <c r="C140" t="n">
-        <v>290.0001525878906</v>
+        <v>43.7344856262207</v>
       </c>
     </row>
     <row r="141">
@@ -1984,10 +1984,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>121.0619430541992</v>
+        <v>43.76058197021484</v>
       </c>
       <c r="C141" t="n">
-        <v>304.1451416015625</v>
+        <v>42.49424743652344</v>
       </c>
     </row>
     <row r="142">
@@ -1995,10 +1995,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>115.8976669311523</v>
+        <v>42.93441390991211</v>
       </c>
       <c r="C142" t="n">
-        <v>282.0729675292969</v>
+        <v>38.98367309570312</v>
       </c>
     </row>
     <row r="143">
@@ -2006,10 +2006,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>104.7551727294922</v>
+        <v>47.01533126831055</v>
       </c>
       <c r="C143" t="n">
-        <v>349.7433166503906</v>
+        <v>47.33504486083984</v>
       </c>
     </row>
     <row r="144">
@@ -2017,10 +2017,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>143.77685546875</v>
+        <v>42.28912734985352</v>
       </c>
       <c r="C144" t="n">
-        <v>304.0657958984375</v>
+        <v>45.93922424316406</v>
       </c>
     </row>
     <row r="145">
@@ -2028,10 +2028,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>113.8902053833008</v>
+        <v>44.27260589599609</v>
       </c>
       <c r="C145" t="n">
-        <v>292.8788452148438</v>
+        <v>39.46706008911133</v>
       </c>
     </row>
     <row r="146">
@@ -2039,10 +2039,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>107.1573944091797</v>
+        <v>39.79005813598633</v>
       </c>
       <c r="C146" t="n">
-        <v>254.5090789794922</v>
+        <v>44.59253311157227</v>
       </c>
     </row>
     <row r="147">
@@ -2050,10 +2050,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>93.15630340576172</v>
+        <v>45.54339981079102</v>
       </c>
       <c r="C147" t="n">
-        <v>303.6294555664062</v>
+        <v>40.52700424194336</v>
       </c>
     </row>
     <row r="148">
@@ -2061,10 +2061,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>146.5545196533203</v>
+        <v>50.60078811645508</v>
       </c>
       <c r="C148" t="n">
-        <v>415.5674133300781</v>
+        <v>48.61539840698242</v>
       </c>
     </row>
     <row r="149">
@@ -2072,10 +2072,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>177.4277648925781</v>
+        <v>42.39609909057617</v>
       </c>
       <c r="C149" t="n">
-        <v>320.0076904296875</v>
+        <v>40.19390869140625</v>
       </c>
     </row>
     <row r="150">
@@ -2083,10 +2083,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>143.6229248046875</v>
+        <v>38.84884262084961</v>
       </c>
       <c r="C150" t="n">
-        <v>304.4667358398438</v>
+        <v>40.48984146118164</v>
       </c>
     </row>
     <row r="151">
@@ -2094,10 +2094,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>132.5671234130859</v>
+        <v>39.68021774291992</v>
       </c>
       <c r="C151" t="n">
-        <v>252.4603118896484</v>
+        <v>36.17878341674805</v>
       </c>
     </row>
     <row r="152">
@@ -2105,10 +2105,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>113.4400329589844</v>
+        <v>42.08359146118164</v>
       </c>
       <c r="C152" t="n">
-        <v>285.5603332519531</v>
+        <v>43.97908401489258</v>
       </c>
     </row>
     <row r="153">
@@ -2116,10 +2116,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>122.2032775878906</v>
+        <v>39.19620895385742</v>
       </c>
       <c r="C153" t="n">
-        <v>267.80029296875</v>
+        <v>65.41651153564453</v>
       </c>
     </row>
     <row r="154">
@@ -2127,10 +2127,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>97.15678405761719</v>
+        <v>47.63595581054688</v>
       </c>
       <c r="C154" t="n">
-        <v>265.3164367675781</v>
+        <v>43.84295272827148</v>
       </c>
     </row>
     <row r="155">
@@ -2138,10 +2138,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>94.40888214111328</v>
+        <v>44.45609664916992</v>
       </c>
       <c r="C155" t="n">
-        <v>260.7492980957031</v>
+        <v>48.75089263916016</v>
       </c>
     </row>
     <row r="156">
@@ -2149,10 +2149,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>96.69673156738281</v>
+        <v>39.33021926879883</v>
       </c>
       <c r="C156" t="n">
-        <v>260.2657165527344</v>
+        <v>54.21338272094727</v>
       </c>
     </row>
     <row r="157">
@@ -2160,10 +2160,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>99.58168792724609</v>
+        <v>40.34241485595703</v>
       </c>
       <c r="C157" t="n">
-        <v>254.6081085205078</v>
+        <v>39.86029815673828</v>
       </c>
     </row>
     <row r="158">
@@ -2171,10 +2171,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>123.1062316894531</v>
+        <v>45.12018966674805</v>
       </c>
       <c r="C158" t="n">
-        <v>293.7777099609375</v>
+        <v>43.51842498779297</v>
       </c>
     </row>
     <row r="159">
@@ -2182,10 +2182,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>129.8005218505859</v>
+        <v>36.84840774536133</v>
       </c>
       <c r="C159" t="n">
-        <v>274.2850952148438</v>
+        <v>39.73234558105469</v>
       </c>
     </row>
     <row r="160">
@@ -2193,10 +2193,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>115.6984939575195</v>
+        <v>38.31499481201172</v>
       </c>
       <c r="C160" t="n">
-        <v>282.8716430664062</v>
+        <v>36.99140167236328</v>
       </c>
     </row>
     <row r="161">
@@ -2204,10 +2204,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>93.23973083496094</v>
+        <v>37.40394973754883</v>
       </c>
       <c r="C161" t="n">
-        <v>241.0385131835938</v>
+        <v>35.81758880615234</v>
       </c>
     </row>
     <row r="162">
@@ -2215,10 +2215,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>110.2929840087891</v>
+        <v>40.70531463623047</v>
       </c>
       <c r="C162" t="n">
-        <v>277.5687866210938</v>
+        <v>42.14796829223633</v>
       </c>
     </row>
     <row r="163">
@@ -2226,10 +2226,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>123.6161117553711</v>
+        <v>38.57903671264648</v>
       </c>
       <c r="C163" t="n">
-        <v>282.9123840332031</v>
+        <v>38.15266418457031</v>
       </c>
     </row>
     <row r="164">
@@ -2237,10 +2237,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>239.7118530273438</v>
+        <v>41.36648941040039</v>
       </c>
       <c r="C164" t="n">
-        <v>319.9286193847656</v>
+        <v>39.52584457397461</v>
       </c>
     </row>
     <row r="165">
@@ -2248,10 +2248,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>222.5962677001953</v>
+        <v>37.95488357543945</v>
       </c>
       <c r="C165" t="n">
-        <v>305.2250366210938</v>
+        <v>40.23965454101562</v>
       </c>
     </row>
     <row r="166">
@@ -2259,10 +2259,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>183.0447998046875</v>
+        <v>34.31669616699219</v>
       </c>
       <c r="C166" t="n">
-        <v>347.5277099609375</v>
+        <v>50.57480621337891</v>
       </c>
     </row>
     <row r="167">
@@ -2270,10 +2270,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>146.6696624755859</v>
+        <v>37.0898323059082</v>
       </c>
       <c r="C167" t="n">
-        <v>342.682373046875</v>
+        <v>40.21657562255859</v>
       </c>
     </row>
     <row r="168">
@@ -2281,10 +2281,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>111.7288589477539</v>
+        <v>40.29685592651367</v>
       </c>
       <c r="C168" t="n">
-        <v>258.1363830566406</v>
+        <v>53.25698471069336</v>
       </c>
     </row>
     <row r="169">
@@ -2292,10 +2292,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>99.74337005615234</v>
+        <v>40.0188102722168</v>
       </c>
       <c r="C169" t="n">
-        <v>270.5457763671875</v>
+        <v>48.21667861938477</v>
       </c>
     </row>
     <row r="170">
@@ -2303,10 +2303,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>106.5829849243164</v>
+        <v>38.04077911376953</v>
       </c>
       <c r="C170" t="n">
-        <v>277.8680725097656</v>
+        <v>41.28530883789062</v>
       </c>
     </row>
     <row r="171">
@@ -2314,10 +2314,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>93.55238342285156</v>
+        <v>39.73836517333984</v>
       </c>
       <c r="C171" t="n">
-        <v>273.1435546875</v>
+        <v>40.25933456420898</v>
       </c>
     </row>
     <row r="172">
@@ -2325,10 +2325,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>93.43144989013672</v>
+        <v>37.63735580444336</v>
       </c>
       <c r="C172" t="n">
-        <v>268.3369750976562</v>
+        <v>38.93166732788086</v>
       </c>
     </row>
     <row r="173">
@@ -2336,10 +2336,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>99.83055114746094</v>
+        <v>39.42350387573242</v>
       </c>
       <c r="C173" t="n">
-        <v>278.4400939941406</v>
+        <v>42.52522659301758</v>
       </c>
     </row>
     <row r="174">
@@ -2347,10 +2347,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>99.61009979248047</v>
+        <v>39.02794647216797</v>
       </c>
       <c r="C174" t="n">
-        <v>271.5519104003906</v>
+        <v>43.89403915405273</v>
       </c>
     </row>
     <row r="175">
@@ -2358,10 +2358,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>86.10176849365234</v>
+        <v>36.98979187011719</v>
       </c>
       <c r="C175" t="n">
-        <v>263.4805603027344</v>
+        <v>36.37287521362305</v>
       </c>
     </row>
     <row r="176">
@@ -2369,10 +2369,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>90.57071685791016</v>
+        <v>37.59659194946289</v>
       </c>
       <c r="C176" t="n">
-        <v>265.7120971679688</v>
+        <v>44.27363204956055</v>
       </c>
     </row>
     <row r="177">
@@ -2380,10 +2380,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>103.4172668457031</v>
+        <v>40.25765609741211</v>
       </c>
       <c r="C177" t="n">
-        <v>325.9594116210938</v>
+        <v>38.29158401489258</v>
       </c>
     </row>
     <row r="178">
@@ -2391,10 +2391,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>122.6123580932617</v>
+        <v>34.15921783447266</v>
       </c>
       <c r="C178" t="n">
-        <v>325.4395751953125</v>
+        <v>36.40829467773438</v>
       </c>
     </row>
     <row r="179">
@@ -2402,10 +2402,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>111.3938598632812</v>
+        <v>32.90373229980469</v>
       </c>
       <c r="C179" t="n">
-        <v>279.3455810546875</v>
+        <v>42.83016204833984</v>
       </c>
     </row>
     <row r="180">
@@ -2413,10 +2413,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>126.126091003418</v>
+        <v>36.42134094238281</v>
       </c>
       <c r="C180" t="n">
-        <v>352.0306701660156</v>
+        <v>37.20610046386719</v>
       </c>
     </row>
     <row r="181">
@@ -2424,10 +2424,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>117.0277481079102</v>
+        <v>37.84559631347656</v>
       </c>
       <c r="C181" t="n">
-        <v>264.5942687988281</v>
+        <v>41.94509124755859</v>
       </c>
     </row>
     <row r="182">
@@ -2435,10 +2435,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>101.6276473999023</v>
+        <v>33.16218948364258</v>
       </c>
       <c r="C182" t="n">
-        <v>274.6134033203125</v>
+        <v>39.36173248291016</v>
       </c>
     </row>
     <row r="183">
@@ -2446,10 +2446,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>94.76317596435547</v>
+        <v>33.17679595947266</v>
       </c>
       <c r="C183" t="n">
-        <v>268.8844604492188</v>
+        <v>34.06723022460938</v>
       </c>
     </row>
     <row r="184">
@@ -2457,10 +2457,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>94.02098846435547</v>
+        <v>38.08551788330078</v>
       </c>
       <c r="C184" t="n">
-        <v>258.618896484375</v>
+        <v>40.84668350219727</v>
       </c>
     </row>
     <row r="185">
@@ -2468,10 +2468,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>116.0331802368164</v>
+        <v>36.9338264465332</v>
       </c>
       <c r="C185" t="n">
-        <v>338.4423217773438</v>
+        <v>42.86367416381836</v>
       </c>
     </row>
     <row r="186">
@@ -2479,10 +2479,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>195.314453125</v>
+        <v>37.69609832763672</v>
       </c>
       <c r="C186" t="n">
-        <v>344.218017578125</v>
+        <v>34.52084732055664</v>
       </c>
     </row>
     <row r="187">
@@ -2490,10 +2490,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>165.4127807617188</v>
+        <v>29.89693069458008</v>
       </c>
       <c r="C187" t="n">
-        <v>288.3128051757812</v>
+        <v>37.86898803710938</v>
       </c>
     </row>
     <row r="188">
@@ -2501,10 +2501,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>116.2769012451172</v>
+        <v>34.89135360717773</v>
       </c>
       <c r="C188" t="n">
-        <v>252.5681762695312</v>
+        <v>35.5860710144043</v>
       </c>
     </row>
     <row r="189">
@@ -2512,10 +2512,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>104.7114410400391</v>
+        <v>33.1308479309082</v>
       </c>
       <c r="C189" t="n">
-        <v>245.3411407470703</v>
+        <v>49.63435745239258</v>
       </c>
     </row>
     <row r="190">
@@ -2523,10 +2523,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>98.59732818603516</v>
+        <v>34.68044662475586</v>
       </c>
       <c r="C190" t="n">
-        <v>246.6172180175781</v>
+        <v>39.30728149414062</v>
       </c>
     </row>
     <row r="191">
@@ -2534,10 +2534,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>102.314826965332</v>
+        <v>35.32112121582031</v>
       </c>
       <c r="C191" t="n">
-        <v>257.4931335449219</v>
+        <v>38.35029602050781</v>
       </c>
     </row>
     <row r="192">
@@ -2545,10 +2545,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>95.82498931884766</v>
+        <v>30.66030120849609</v>
       </c>
       <c r="C192" t="n">
-        <v>283.1848754882812</v>
+        <v>36.07387161254883</v>
       </c>
     </row>
     <row r="193">
@@ -2556,10 +2556,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>97.38236999511719</v>
+        <v>32.17671966552734</v>
       </c>
       <c r="C193" t="n">
-        <v>268.5335083007812</v>
+        <v>31.97366523742676</v>
       </c>
     </row>
     <row r="194">
@@ -2567,10 +2567,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>94.99532318115234</v>
+        <v>33.59929656982422</v>
       </c>
       <c r="C194" t="n">
-        <v>260.9640197753906</v>
+        <v>32.78418350219727</v>
       </c>
     </row>
     <row r="195">
@@ -2578,10 +2578,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>90.12227630615234</v>
+        <v>30.88430976867676</v>
       </c>
       <c r="C195" t="n">
-        <v>241.2841186523438</v>
+        <v>38.93464660644531</v>
       </c>
     </row>
     <row r="196">
@@ -2589,10 +2589,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>86.98617553710938</v>
+        <v>32.31201553344727</v>
       </c>
       <c r="C196" t="n">
-        <v>313.0582275390625</v>
+        <v>36.57655334472656</v>
       </c>
     </row>
     <row r="197">
@@ -2600,10 +2600,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>115.3983001708984</v>
+        <v>33.51544189453125</v>
       </c>
       <c r="C197" t="n">
-        <v>260.0203247070312</v>
+        <v>35.71480560302734</v>
       </c>
     </row>
     <row r="198">
@@ -2611,10 +2611,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>104.916374206543</v>
+        <v>37.73546981811523</v>
       </c>
       <c r="C198" t="n">
-        <v>252.3095397949219</v>
+        <v>36.84798431396484</v>
       </c>
     </row>
     <row r="199">
@@ -2622,10 +2622,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>90.79914093017578</v>
+        <v>36.58269119262695</v>
       </c>
       <c r="C199" t="n">
-        <v>256.8553466796875</v>
+        <v>52.5290641784668</v>
       </c>
     </row>
     <row r="200">
@@ -2633,10 +2633,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>117.2863235473633</v>
+        <v>32.73358917236328</v>
       </c>
       <c r="C200" t="n">
-        <v>252.5909118652344</v>
+        <v>32.33523178100586</v>
       </c>
     </row>
     <row r="201">
@@ -2644,10 +2644,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>102.953369140625</v>
+        <v>30.29977416992188</v>
       </c>
       <c r="C201" t="n">
-        <v>272.678955078125</v>
+        <v>53.75361633300781</v>
       </c>
     </row>
     <row r="202">
@@ -2655,10 +2655,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>114.3893280029297</v>
+        <v>46.4427490234375</v>
       </c>
       <c r="C202" t="n">
-        <v>260.3788452148438</v>
+        <v>42.58394241333008</v>
       </c>
     </row>
     <row r="203">
@@ -2666,10 +2666,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>96.37242889404297</v>
+        <v>30.45991516113281</v>
       </c>
       <c r="C203" t="n">
-        <v>258.6002807617188</v>
+        <v>32.81222915649414</v>
       </c>
     </row>
     <row r="204">
@@ -2677,10 +2677,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>93.59952545166016</v>
+        <v>36.23188018798828</v>
       </c>
       <c r="C204" t="n">
-        <v>271.10546875</v>
+        <v>38.57550430297852</v>
       </c>
     </row>
     <row r="205">
@@ -2688,10 +2688,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>81.19847106933594</v>
+        <v>33.05836868286133</v>
       </c>
       <c r="C205" t="n">
-        <v>253.1061553955078</v>
+        <v>35.7234001159668</v>
       </c>
     </row>
     <row r="206">
@@ -2699,10 +2699,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>90.61822509765625</v>
+        <v>30.25474739074707</v>
       </c>
       <c r="C206" t="n">
-        <v>265.01611328125</v>
+        <v>36.45635604858398</v>
       </c>
     </row>
     <row r="207">
@@ -2710,10 +2710,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>85.83346557617188</v>
+        <v>32.0106201171875</v>
       </c>
       <c r="C207" t="n">
-        <v>248.4715881347656</v>
+        <v>36.19572067260742</v>
       </c>
     </row>
     <row r="208">
@@ -2721,10 +2721,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>86.48854064941406</v>
+        <v>29.39278411865234</v>
       </c>
       <c r="C208" t="n">
-        <v>281.9917297363281</v>
+        <v>34.56554412841797</v>
       </c>
     </row>
     <row r="209">
@@ -2732,10 +2732,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>88.6590576171875</v>
+        <v>33.38428497314453</v>
       </c>
       <c r="C209" t="n">
-        <v>233.3357086181641</v>
+        <v>40.24448776245117</v>
       </c>
     </row>
     <row r="210">
@@ -2743,10 +2743,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>88.613525390625</v>
+        <v>31.33600234985352</v>
       </c>
       <c r="C210" t="n">
-        <v>250.2420959472656</v>
+        <v>40.53916931152344</v>
       </c>
     </row>
     <row r="211">
@@ -2754,10 +2754,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>72.98101043701172</v>
+        <v>35.16878128051758</v>
       </c>
       <c r="C211" t="n">
-        <v>221.765380859375</v>
+        <v>38.29425430297852</v>
       </c>
     </row>
     <row r="212">
@@ -2765,10 +2765,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>75.58148193359375</v>
+        <v>34.27503967285156</v>
       </c>
       <c r="C212" t="n">
-        <v>261.04248046875</v>
+        <v>57.45867538452148</v>
       </c>
     </row>
     <row r="213">
@@ -2776,10 +2776,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>98.82044219970703</v>
+        <v>37.90423202514648</v>
       </c>
       <c r="C213" t="n">
-        <v>401.58642578125</v>
+        <v>50.32234191894531</v>
       </c>
     </row>
     <row r="214">
@@ -2787,10 +2787,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>226.0816040039062</v>
+        <v>34.49163818359375</v>
       </c>
       <c r="C214" t="n">
-        <v>389.2118225097656</v>
+        <v>39.69730377197266</v>
       </c>
     </row>
     <row r="215">
@@ -2798,10 +2798,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>189.0069427490234</v>
+        <v>31.10052680969238</v>
       </c>
       <c r="C215" t="n">
-        <v>333.5304870605469</v>
+        <v>30.05926132202148</v>
       </c>
     </row>
     <row r="216">
@@ -2809,10 +2809,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>148.3271331787109</v>
+        <v>34.48320388793945</v>
       </c>
       <c r="C216" t="n">
-        <v>422.3963012695312</v>
+        <v>33.74050521850586</v>
       </c>
     </row>
     <row r="217">
@@ -2820,10 +2820,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>193.4338836669922</v>
+        <v>30.5811767578125</v>
       </c>
       <c r="C217" t="n">
-        <v>524.835693359375</v>
+        <v>40.55389785766602</v>
       </c>
     </row>
     <row r="218">
@@ -2831,10 +2831,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>262.7734680175781</v>
+        <v>30.08489799499512</v>
       </c>
       <c r="C218" t="n">
-        <v>308.99951171875</v>
+        <v>34.7570686340332</v>
       </c>
     </row>
     <row r="219">
@@ -2842,10 +2842,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>166.6497955322266</v>
+        <v>32.50217437744141</v>
       </c>
       <c r="C219" t="n">
-        <v>297.591552734375</v>
+        <v>30.12169456481934</v>
       </c>
     </row>
     <row r="220">
@@ -2853,10 +2853,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>130.0588531494141</v>
+        <v>33.76235198974609</v>
       </c>
       <c r="C220" t="n">
-        <v>279.9407348632812</v>
+        <v>33.05904006958008</v>
       </c>
     </row>
     <row r="221">
@@ -2864,10 +2864,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>138.45263671875</v>
+        <v>29.72415351867676</v>
       </c>
       <c r="C221" t="n">
-        <v>279.4409790039062</v>
+        <v>42.02523422241211</v>
       </c>
     </row>
     <row r="222">
@@ -2875,10 +2875,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>115.4076690673828</v>
+        <v>30.04232025146484</v>
       </c>
       <c r="C222" t="n">
-        <v>283.9129943847656</v>
+        <v>39.70623779296875</v>
       </c>
     </row>
     <row r="223">
@@ -2886,10 +2886,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>109.7008895874023</v>
+        <v>35.05664825439453</v>
       </c>
       <c r="C223" t="n">
-        <v>269.2947082519531</v>
+        <v>47.86960601806641</v>
       </c>
     </row>
     <row r="224">
@@ -2897,10 +2897,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>95.17436981201172</v>
+        <v>33.28477096557617</v>
       </c>
       <c r="C224" t="n">
-        <v>296.3116760253906</v>
+        <v>34.24853134155273</v>
       </c>
     </row>
     <row r="225">
@@ -2908,10 +2908,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>99.78777313232422</v>
+        <v>27.76944732666016</v>
       </c>
       <c r="C225" t="n">
-        <v>259.2278442382812</v>
+        <v>30.52804565429688</v>
       </c>
     </row>
     <row r="226">
@@ -2919,10 +2919,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>88.51212310791016</v>
+        <v>28.57828521728516</v>
       </c>
       <c r="C226" t="n">
-        <v>269.5942687988281</v>
+        <v>37.39705657958984</v>
       </c>
     </row>
     <row r="227">
@@ -2930,10 +2930,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>82.91580963134766</v>
+        <v>29.99861335754395</v>
       </c>
       <c r="C227" t="n">
-        <v>240.7208862304688</v>
+        <v>34.71566772460938</v>
       </c>
     </row>
     <row r="228">
@@ -2941,10 +2941,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>90.05973815917969</v>
+        <v>27.30422592163086</v>
       </c>
       <c r="C228" t="n">
-        <v>261.4772644042969</v>
+        <v>43.59153366088867</v>
       </c>
     </row>
     <row r="229">
@@ -2952,10 +2952,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>105.7536087036133</v>
+        <v>31.30065727233887</v>
       </c>
       <c r="C229" t="n">
-        <v>265.2662048339844</v>
+        <v>36.14248657226562</v>
       </c>
     </row>
     <row r="230">
@@ -2963,10 +2963,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>94.74242401123047</v>
+        <v>34.1159782409668</v>
       </c>
       <c r="C230" t="n">
-        <v>255.9588012695312</v>
+        <v>32.89382171630859</v>
       </c>
     </row>
     <row r="231">
@@ -2974,10 +2974,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>115.6837463378906</v>
+        <v>36.00043487548828</v>
       </c>
       <c r="C231" t="n">
-        <v>300.1183166503906</v>
+        <v>83.74925231933594</v>
       </c>
     </row>
     <row r="232">
@@ -2985,10 +2985,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>97.88449096679688</v>
+        <v>42.00312423706055</v>
       </c>
       <c r="C232" t="n">
-        <v>244.8554382324219</v>
+        <v>45.1783561706543</v>
       </c>
     </row>
     <row r="233">
@@ -2996,10 +2996,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>86.78347015380859</v>
+        <v>34.82456970214844</v>
       </c>
       <c r="C233" t="n">
-        <v>240.2024688720703</v>
+        <v>37.01593399047852</v>
       </c>
     </row>
     <row r="234">
@@ -3007,10 +3007,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>79.38489532470703</v>
+        <v>31.98354148864746</v>
       </c>
       <c r="C234" t="n">
-        <v>240.1892395019531</v>
+        <v>34.22038269042969</v>
       </c>
     </row>
     <row r="235">
@@ -3018,10 +3018,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>91.00945281982422</v>
+        <v>31.01939392089844</v>
       </c>
       <c r="C235" t="n">
-        <v>296.4826965332031</v>
+        <v>37.13817977905273</v>
       </c>
     </row>
     <row r="236">
@@ -3029,10 +3029,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>86.182861328125</v>
+        <v>32.8271369934082</v>
       </c>
       <c r="C236" t="n">
-        <v>243.888671875</v>
+        <v>38.21168899536133</v>
       </c>
     </row>
     <row r="237">
@@ -3040,10 +3040,10 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>129.4835357666016</v>
+        <v>34.49682998657227</v>
       </c>
       <c r="C237" t="n">
-        <v>295.0826416015625</v>
+        <v>34.22014999389648</v>
       </c>
     </row>
     <row r="238">
@@ -3051,10 +3051,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>125.7279357910156</v>
+        <v>30.34291648864746</v>
       </c>
       <c r="C238" t="n">
-        <v>252.1019744873047</v>
+        <v>33.98912811279297</v>
       </c>
     </row>
     <row r="239">
@@ -3062,10 +3062,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>103.3488845825195</v>
+        <v>34.60935974121094</v>
       </c>
       <c r="C239" t="n">
-        <v>255.3932342529297</v>
+        <v>43.10085296630859</v>
       </c>
     </row>
     <row r="240">
@@ -3073,10 +3073,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>90.25977325439453</v>
+        <v>33.72958755493164</v>
       </c>
       <c r="C240" t="n">
-        <v>297.0545654296875</v>
+        <v>35.27054214477539</v>
       </c>
     </row>
     <row r="241">
@@ -3084,10 +3084,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>90.71730041503906</v>
+        <v>28.36318778991699</v>
       </c>
       <c r="C241" t="n">
-        <v>229.3531036376953</v>
+        <v>36.34091186523438</v>
       </c>
     </row>
     <row r="242">
@@ -3095,10 +3095,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>88.69917297363281</v>
+        <v>37.34982681274414</v>
       </c>
       <c r="C242" t="n">
-        <v>257.9613647460938</v>
+        <v>58.83551406860352</v>
       </c>
     </row>
     <row r="243">
@@ -3106,10 +3106,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>81.45906829833984</v>
+        <v>38.19593048095703</v>
       </c>
       <c r="C243" t="n">
-        <v>230.7822570800781</v>
+        <v>40.80135345458984</v>
       </c>
     </row>
     <row r="244">
@@ -3117,10 +3117,10 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>89.36801910400391</v>
+        <v>33.39241790771484</v>
       </c>
       <c r="C244" t="n">
-        <v>260.7132568359375</v>
+        <v>36.62027740478516</v>
       </c>
     </row>
     <row r="245">
@@ -3128,10 +3128,10 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>78.21973419189453</v>
+        <v>30.49095153808594</v>
       </c>
       <c r="C245" t="n">
-        <v>225.7232360839844</v>
+        <v>39.95272445678711</v>
       </c>
     </row>
     <row r="246">
@@ -3139,10 +3139,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>67.98899078369141</v>
+        <v>33.68529510498047</v>
       </c>
       <c r="C246" t="n">
-        <v>252.6703033447266</v>
+        <v>43.14146041870117</v>
       </c>
     </row>
     <row r="247">
@@ -3150,10 +3150,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>67.29360961914062</v>
+        <v>32.18317794799805</v>
       </c>
       <c r="C247" t="n">
-        <v>259.84423828125</v>
+        <v>33.46500015258789</v>
       </c>
     </row>
     <row r="248">
@@ -3161,10 +3161,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>75.43240356445312</v>
+        <v>29.2757511138916</v>
       </c>
       <c r="C248" t="n">
-        <v>255.0453338623047</v>
+        <v>29.62582015991211</v>
       </c>
     </row>
     <row r="249">
@@ -3172,10 +3172,10 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>98.04933166503906</v>
+        <v>32.06099700927734</v>
       </c>
       <c r="C249" t="n">
-        <v>248.1006469726562</v>
+        <v>36.30675506591797</v>
       </c>
     </row>
     <row r="250">
@@ -3183,10 +3183,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>88.30142974853516</v>
+        <v>34.25056457519531</v>
       </c>
       <c r="C250" t="n">
-        <v>240.4046783447266</v>
+        <v>45.37546539306641</v>
       </c>
     </row>
     <row r="251">
@@ -3194,10 +3194,10 @@
         <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>80.19994354248047</v>
+        <v>29.49229049682617</v>
       </c>
       <c r="C251" t="n">
-        <v>214.8157501220703</v>
+        <v>29.77044486999512</v>
       </c>
     </row>
     <row r="252">
@@ -3205,10 +3205,10 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>79.45644378662109</v>
+        <v>32.01288986206055</v>
       </c>
       <c r="C252" t="n">
-        <v>242.8544311523438</v>
+        <v>32.92521667480469</v>
       </c>
     </row>
     <row r="253">
@@ -3216,10 +3216,10 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>68.94625091552734</v>
+        <v>30.64989471435547</v>
       </c>
       <c r="C253" t="n">
-        <v>219.0075225830078</v>
+        <v>31.07585144042969</v>
       </c>
     </row>
     <row r="254">
@@ -3227,10 +3227,10 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>99.64649963378906</v>
+        <v>29.10563087463379</v>
       </c>
       <c r="C254" t="n">
-        <v>266.7091979980469</v>
+        <v>37.0721321105957</v>
       </c>
     </row>
     <row r="255">
@@ -3238,10 +3238,10 @@
         <v>254</v>
       </c>
       <c r="B255" t="n">
-        <v>88.08698272705078</v>
+        <v>37.21783447265625</v>
       </c>
       <c r="C255" t="n">
-        <v>226.9936218261719</v>
+        <v>37.51942825317383</v>
       </c>
     </row>
     <row r="256">
@@ -3249,10 +3249,10 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>84.00759124755859</v>
+        <v>31.04264640808105</v>
       </c>
       <c r="C256" t="n">
-        <v>229.2119750976562</v>
+        <v>31.50877571105957</v>
       </c>
     </row>
     <row r="257">
@@ -3260,10 +3260,10 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>76.72522735595703</v>
+        <v>30.79080581665039</v>
       </c>
       <c r="C257" t="n">
-        <v>231.9946899414062</v>
+        <v>34.73181915283203</v>
       </c>
     </row>
     <row r="258">
@@ -3271,10 +3271,10 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>72.86309051513672</v>
+        <v>28.51367378234863</v>
       </c>
       <c r="C258" t="n">
-        <v>217.6931304931641</v>
+        <v>39.08879852294922</v>
       </c>
     </row>
     <row r="259">
@@ -3282,10 +3282,10 @@
         <v>258</v>
       </c>
       <c r="B259" t="n">
-        <v>70.52698516845703</v>
+        <v>32.39582824707031</v>
       </c>
       <c r="C259" t="n">
-        <v>240.2948303222656</v>
+        <v>49.52786636352539</v>
       </c>
     </row>
     <row r="260">
@@ -3293,10 +3293,10 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>66.20888519287109</v>
+        <v>31.18613433837891</v>
       </c>
       <c r="C260" t="n">
-        <v>225.4784240722656</v>
+        <v>31.95434188842773</v>
       </c>
     </row>
     <row r="261">
@@ -3304,10 +3304,10 @@
         <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>69.03971862792969</v>
+        <v>31.08831405639648</v>
       </c>
       <c r="C261" t="n">
-        <v>217.2033538818359</v>
+        <v>31.37011909484863</v>
       </c>
     </row>
     <row r="262">
@@ -3315,10 +3315,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>102.0980834960938</v>
+        <v>29.0363597869873</v>
       </c>
       <c r="C262" t="n">
-        <v>247.33984375</v>
+        <v>38.02713775634766</v>
       </c>
     </row>
     <row r="263">
@@ -3326,10 +3326,10 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>113.3323364257812</v>
+        <v>29.12809181213379</v>
       </c>
       <c r="C263" t="n">
-        <v>239.2026672363281</v>
+        <v>37.22907257080078</v>
       </c>
     </row>
     <row r="264">
@@ -3337,10 +3337,10 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>207.0049896240234</v>
+        <v>26.57117080688477</v>
       </c>
       <c r="C264" t="n">
-        <v>304.1173706054688</v>
+        <v>30.54035186767578</v>
       </c>
     </row>
     <row r="265">
@@ -3348,10 +3348,10 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>133.3607177734375</v>
+        <v>33.16197967529297</v>
       </c>
       <c r="C265" t="n">
-        <v>278.5419616699219</v>
+        <v>47.28539276123047</v>
       </c>
     </row>
     <row r="266">
@@ -3359,10 +3359,10 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>128.7340698242188</v>
+        <v>35.75319290161133</v>
       </c>
       <c r="C266" t="n">
-        <v>263.0054626464844</v>
+        <v>28.88984870910645</v>
       </c>
     </row>
     <row r="267">
@@ -3370,10 +3370,10 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>185.5232238769531</v>
+        <v>29.85529518127441</v>
       </c>
       <c r="C267" t="n">
-        <v>362.8374328613281</v>
+        <v>33.51068496704102</v>
       </c>
     </row>
     <row r="268">
@@ -3381,10 +3381,10 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>206.9712219238281</v>
+        <v>29.805419921875</v>
       </c>
       <c r="C268" t="n">
-        <v>232.9472045898438</v>
+        <v>33.94859313964844</v>
       </c>
     </row>
     <row r="269">
@@ -3392,10 +3392,10 @@
         <v>268</v>
       </c>
       <c r="B269" t="n">
-        <v>135.7244415283203</v>
+        <v>26.39457130432129</v>
       </c>
       <c r="C269" t="n">
-        <v>227.0198974609375</v>
+        <v>33.50718307495117</v>
       </c>
     </row>
     <row r="270">
@@ -3403,10 +3403,10 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>123.283821105957</v>
+        <v>26.76199913024902</v>
       </c>
       <c r="C270" t="n">
-        <v>225.6269683837891</v>
+        <v>36.59225082397461</v>
       </c>
     </row>
     <row r="271">
@@ -3414,10 +3414,10 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>101.9945602416992</v>
+        <v>40.72918319702148</v>
       </c>
       <c r="C271" t="n">
-        <v>242.1840667724609</v>
+        <v>34.28118133544922</v>
       </c>
     </row>
     <row r="272">
@@ -3425,10 +3425,10 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>103.1259918212891</v>
+        <v>31.01232719421387</v>
       </c>
       <c r="C272" t="n">
-        <v>209.757568359375</v>
+        <v>50.27187728881836</v>
       </c>
     </row>
     <row r="273">
@@ -3436,10 +3436,10 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>93.6109619140625</v>
+        <v>31.23567199707031</v>
       </c>
       <c r="C273" t="n">
-        <v>221.7750701904297</v>
+        <v>54.81935119628906</v>
       </c>
     </row>
     <row r="274">
@@ -3447,10 +3447,10 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>96.29047393798828</v>
+        <v>33.97301483154297</v>
       </c>
       <c r="C274" t="n">
-        <v>259.6966247558594</v>
+        <v>41.92631530761719</v>
       </c>
     </row>
     <row r="275">
@@ -3458,10 +3458,10 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>232.1912536621094</v>
+        <v>39.34384536743164</v>
       </c>
       <c r="C275" t="n">
-        <v>306.3433227539062</v>
+        <v>48.11804962158203</v>
       </c>
     </row>
     <row r="276">
@@ -3469,10 +3469,10 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>278.4407043457031</v>
+        <v>33.4362678527832</v>
       </c>
       <c r="C276" t="n">
-        <v>404.9206848144531</v>
+        <v>40.57820129394531</v>
       </c>
     </row>
     <row r="277">
@@ -3480,10 +3480,10 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>217.0183868408203</v>
+        <v>30.88489151000977</v>
       </c>
       <c r="C277" t="n">
-        <v>282.8603210449219</v>
+        <v>38.18823623657227</v>
       </c>
     </row>
     <row r="278">
@@ -3491,10 +3491,10 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>136.3501892089844</v>
+        <v>30.64871215820312</v>
       </c>
       <c r="C278" t="n">
-        <v>277.9362182617188</v>
+        <v>46.77297973632812</v>
       </c>
     </row>
     <row r="279">
@@ -3502,10 +3502,10 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>130.5371398925781</v>
+        <v>28.55328559875488</v>
       </c>
       <c r="C279" t="n">
-        <v>266.404052734375</v>
+        <v>30.6719970703125</v>
       </c>
     </row>
     <row r="280">
@@ -3513,10 +3513,10 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>107.0220565795898</v>
+        <v>30.88632774353027</v>
       </c>
       <c r="C280" t="n">
-        <v>251.0538330078125</v>
+        <v>32.84305953979492</v>
       </c>
     </row>
     <row r="281">
@@ -3524,10 +3524,10 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>112.2847900390625</v>
+        <v>28.6385612487793</v>
       </c>
       <c r="C281" t="n">
-        <v>231.8835754394531</v>
+        <v>32.91182327270508</v>
       </c>
     </row>
     <row r="282">
@@ -3535,10 +3535,10 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>92.22711944580078</v>
+        <v>32.55382919311523</v>
       </c>
       <c r="C282" t="n">
-        <v>221.4898376464844</v>
+        <v>30.13265037536621</v>
       </c>
     </row>
     <row r="283">
@@ -3546,10 +3546,10 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>71.60443878173828</v>
+        <v>31.22470664978027</v>
       </c>
       <c r="C283" t="n">
-        <v>246.4954833984375</v>
+        <v>29.69388008117676</v>
       </c>
     </row>
     <row r="284">
@@ -3557,10 +3557,10 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>63.58087158203125</v>
+        <v>27.40316581726074</v>
       </c>
       <c r="C284" t="n">
-        <v>217.7408294677734</v>
+        <v>30.47202491760254</v>
       </c>
     </row>
     <row r="285">
@@ -3568,10 +3568,10 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>77.43653869628906</v>
+        <v>29.08193778991699</v>
       </c>
       <c r="C285" t="n">
-        <v>252.9985809326172</v>
+        <v>31.48819732666016</v>
       </c>
     </row>
     <row r="286">
@@ -3579,10 +3579,10 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>78.63384246826172</v>
+        <v>25.58606910705566</v>
       </c>
       <c r="C286" t="n">
-        <v>226.6333465576172</v>
+        <v>35.36039352416992</v>
       </c>
     </row>
     <row r="287">
@@ -3590,10 +3590,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>107.752571105957</v>
+        <v>27.3347225189209</v>
       </c>
       <c r="C287" t="n">
-        <v>244.7761840820312</v>
+        <v>31.18964004516602</v>
       </c>
     </row>
     <row r="288">
@@ -3601,10 +3601,10 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>167.0664215087891</v>
+        <v>29.199462890625</v>
       </c>
       <c r="C288" t="n">
-        <v>310.1788024902344</v>
+        <v>33.12911605834961</v>
       </c>
     </row>
     <row r="289">
@@ -3612,10 +3612,10 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>159.6261138916016</v>
+        <v>26.26849365234375</v>
       </c>
       <c r="C289" t="n">
-        <v>265.9797058105469</v>
+        <v>33.24552536010742</v>
       </c>
     </row>
     <row r="290">
@@ -3623,10 +3623,10 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>162.6311187744141</v>
+        <v>42.26325607299805</v>
       </c>
       <c r="C290" t="n">
-        <v>313.0537719726562</v>
+        <v>55.97071838378906</v>
       </c>
     </row>
     <row r="291">
@@ -3634,10 +3634,10 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>151.8652954101562</v>
+        <v>35.25150680541992</v>
       </c>
       <c r="C291" t="n">
-        <v>291.5917358398438</v>
+        <v>35.79802322387695</v>
       </c>
     </row>
     <row r="292">
@@ -3645,10 +3645,10 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>108.4653472900391</v>
+        <v>32.98896789550781</v>
       </c>
       <c r="C292" t="n">
-        <v>262.8222045898438</v>
+        <v>33.71836471557617</v>
       </c>
     </row>
     <row r="293">
@@ -3656,10 +3656,10 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>104.5438919067383</v>
+        <v>31.53054046630859</v>
       </c>
       <c r="C293" t="n">
-        <v>224.2914428710938</v>
+        <v>35.75569152832031</v>
       </c>
     </row>
     <row r="294">
@@ -3667,10 +3667,10 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>113.0577850341797</v>
+        <v>27.79434967041016</v>
       </c>
       <c r="C294" t="n">
-        <v>232.7787475585938</v>
+        <v>26.64386177062988</v>
       </c>
     </row>
     <row r="295">
@@ -3678,10 +3678,10 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>79.5948486328125</v>
+        <v>31.12949371337891</v>
       </c>
       <c r="C295" t="n">
-        <v>238.756103515625</v>
+        <v>31.75468444824219</v>
       </c>
     </row>
     <row r="296">
@@ -3689,10 +3689,10 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>68.98693084716797</v>
+        <v>32.32617568969727</v>
       </c>
       <c r="C296" t="n">
-        <v>218.4709777832031</v>
+        <v>30.41749954223633</v>
       </c>
     </row>
     <row r="297">
@@ -3700,10 +3700,10 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>66.70973968505859</v>
+        <v>28.72696113586426</v>
       </c>
       <c r="C297" t="n">
-        <v>236.6694641113281</v>
+        <v>25.00091934204102</v>
       </c>
     </row>
     <row r="298">
@@ -3711,10 +3711,10 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>84.73316955566406</v>
+        <v>31.34694671630859</v>
       </c>
       <c r="C298" t="n">
-        <v>241.611328125</v>
+        <v>37.41765213012695</v>
       </c>
     </row>
     <row r="299">
@@ -3722,10 +3722,10 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>72.69740295410156</v>
+        <v>26.99258613586426</v>
       </c>
       <c r="C299" t="n">
-        <v>247.6563568115234</v>
+        <v>27.21559906005859</v>
       </c>
     </row>
     <row r="300">
@@ -3733,10 +3733,10 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>61.44327163696289</v>
+        <v>34.23577499389648</v>
       </c>
       <c r="C300" t="n">
-        <v>225.3350982666016</v>
+        <v>37.02717590332031</v>
       </c>
     </row>
     <row r="301">
@@ -3744,10 +3744,10 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>83.82182312011719</v>
+        <v>30.73832511901855</v>
       </c>
       <c r="C301" t="n">
-        <v>270.5732421875</v>
+        <v>31.29773902893066</v>
       </c>
     </row>
     <row r="302">
@@ -3755,10 +3755,10 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>75.93492889404297</v>
+        <v>26.72722053527832</v>
       </c>
       <c r="C302" t="n">
-        <v>231.0980224609375</v>
+        <v>31.27950859069824</v>
       </c>
     </row>
     <row r="303">
@@ -3766,10 +3766,10 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>64.00640106201172</v>
+        <v>34.36515426635742</v>
       </c>
       <c r="C303" t="n">
-        <v>232.1799926757812</v>
+        <v>38.11625671386719</v>
       </c>
     </row>
     <row r="304">
@@ -3777,10 +3777,10 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>71.96854400634766</v>
+        <v>33.3560676574707</v>
       </c>
       <c r="C304" t="n">
-        <v>214.4402618408203</v>
+        <v>29.66827392578125</v>
       </c>
     </row>
     <row r="305">
@@ -3788,10 +3788,10 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>62.81906509399414</v>
+        <v>31.08556747436523</v>
       </c>
       <c r="C305" t="n">
-        <v>229.3203887939453</v>
+        <v>37.25636291503906</v>
       </c>
     </row>
     <row r="306">
@@ -3799,10 +3799,10 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>60.34255599975586</v>
+        <v>27.79426002502441</v>
       </c>
       <c r="C306" t="n">
-        <v>232.7825164794922</v>
+        <v>30.24102973937988</v>
       </c>
     </row>
     <row r="307">
@@ -3810,10 +3810,10 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>78.43794250488281</v>
+        <v>28.56769561767578</v>
       </c>
       <c r="C307" t="n">
-        <v>204.1766662597656</v>
+        <v>31.81968307495117</v>
       </c>
     </row>
     <row r="308">
@@ -3821,10 +3821,10 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>73.26238250732422</v>
+        <v>28.28683853149414</v>
       </c>
       <c r="C308" t="n">
-        <v>217.0248413085938</v>
+        <v>34.80977630615234</v>
       </c>
     </row>
     <row r="309">
@@ -3832,10 +3832,10 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>80.19622039794922</v>
+        <v>29.23351287841797</v>
       </c>
       <c r="C309" t="n">
-        <v>248.8778991699219</v>
+        <v>36.53410339355469</v>
       </c>
     </row>
     <row r="310">
@@ -3843,10 +3843,10 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>71.41846466064453</v>
+        <v>33.01103973388672</v>
       </c>
       <c r="C310" t="n">
-        <v>203.5287933349609</v>
+        <v>30.65616989135742</v>
       </c>
     </row>
     <row r="311">
@@ -3854,10 +3854,10 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>57.64992904663086</v>
+        <v>25.13025093078613</v>
       </c>
       <c r="C311" t="n">
-        <v>221.8473815917969</v>
+        <v>29.03491020202637</v>
       </c>
     </row>
     <row r="312">
@@ -3865,10 +3865,10 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>56.93365097045898</v>
+        <v>25.59372520446777</v>
       </c>
       <c r="C312" t="n">
-        <v>222.1661376953125</v>
+        <v>31.67697715759277</v>
       </c>
     </row>
     <row r="313">
@@ -3876,10 +3876,10 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>53.7894172668457</v>
+        <v>28.05482292175293</v>
       </c>
       <c r="C313" t="n">
-        <v>220.1731414794922</v>
+        <v>37.12729263305664</v>
       </c>
     </row>
     <row r="314">
@@ -3887,10 +3887,10 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>65.79804992675781</v>
+        <v>27.90480804443359</v>
       </c>
       <c r="C314" t="n">
-        <v>244.2768402099609</v>
+        <v>28.81140518188477</v>
       </c>
     </row>
     <row r="315">
@@ -3898,10 +3898,10 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>77.48584747314453</v>
+        <v>29.10910606384277</v>
       </c>
       <c r="C315" t="n">
-        <v>227.3997497558594</v>
+        <v>46.7020149230957</v>
       </c>
     </row>
     <row r="316">
@@ -3909,10 +3909,10 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>64.83985900878906</v>
+        <v>30.21254348754883</v>
       </c>
       <c r="C316" t="n">
-        <v>233.4318237304688</v>
+        <v>24.94756126403809</v>
       </c>
     </row>
     <row r="317">
@@ -3920,10 +3920,10 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>71.66240692138672</v>
+        <v>27.83282279968262</v>
       </c>
       <c r="C317" t="n">
-        <v>211.187255859375</v>
+        <v>29.23045539855957</v>
       </c>
     </row>
     <row r="318">
@@ -3931,10 +3931,10 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>61.36825942993164</v>
+        <v>33.54519653320312</v>
       </c>
       <c r="C318" t="n">
-        <v>236.0015106201172</v>
+        <v>30.59275245666504</v>
       </c>
     </row>
     <row r="319">
@@ -3942,10 +3942,10 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>70.61223602294922</v>
+        <v>25.63334083557129</v>
       </c>
       <c r="C319" t="n">
-        <v>210.1110534667969</v>
+        <v>25.73443412780762</v>
       </c>
     </row>
     <row r="320">
@@ -3953,10 +3953,10 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>62.76746368408203</v>
+        <v>25.75954246520996</v>
       </c>
       <c r="C320" t="n">
-        <v>217.0731506347656</v>
+        <v>35.15718460083008</v>
       </c>
     </row>
     <row r="321">
@@ -3964,10 +3964,10 @@
         <v>320</v>
       </c>
       <c r="B321" t="n">
-        <v>55.7685546875</v>
+        <v>39.6173210144043</v>
       </c>
       <c r="C321" t="n">
-        <v>215.4825744628906</v>
+        <v>39.90622329711914</v>
       </c>
     </row>
     <row r="322">
@@ -3975,10 +3975,10 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>49.59220504760742</v>
+        <v>28.74954986572266</v>
       </c>
       <c r="C322" t="n">
-        <v>210.1637115478516</v>
+        <v>50.24623870849609</v>
       </c>
     </row>
     <row r="323">
@@ -3986,10 +3986,10 @@
         <v>322</v>
       </c>
       <c r="B323" t="n">
-        <v>68.27962493896484</v>
+        <v>32.81763458251953</v>
       </c>
       <c r="C323" t="n">
-        <v>216.6880645751953</v>
+        <v>34.07538223266602</v>
       </c>
     </row>
     <row r="324">
@@ -3997,10 +3997,10 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
-        <v>72.76850128173828</v>
+        <v>28.42290687561035</v>
       </c>
       <c r="C324" t="n">
-        <v>230.4887237548828</v>
+        <v>30.14497947692871</v>
       </c>
     </row>
     <row r="325">
@@ -4008,10 +4008,10 @@
         <v>324</v>
       </c>
       <c r="B325" t="n">
-        <v>72.44863128662109</v>
+        <v>28.23779678344727</v>
       </c>
       <c r="C325" t="n">
-        <v>206.8331298828125</v>
+        <v>31.28283882141113</v>
       </c>
     </row>
     <row r="326">
@@ -4019,10 +4019,10 @@
         <v>325</v>
       </c>
       <c r="B326" t="n">
-        <v>72.82289886474609</v>
+        <v>29.38954925537109</v>
       </c>
       <c r="C326" t="n">
-        <v>221.3470458984375</v>
+        <v>28.52301216125488</v>
       </c>
     </row>
     <row r="327">
@@ -4030,10 +4030,10 @@
         <v>326</v>
       </c>
       <c r="B327" t="n">
-        <v>65.41224670410156</v>
+        <v>29.1274528503418</v>
       </c>
       <c r="C327" t="n">
-        <v>240.2864685058594</v>
+        <v>34.28154754638672</v>
       </c>
     </row>
     <row r="328">
@@ -4041,10 +4041,10 @@
         <v>327</v>
       </c>
       <c r="B328" t="n">
-        <v>84.28277587890625</v>
+        <v>26.48703384399414</v>
       </c>
       <c r="C328" t="n">
-        <v>235.5282745361328</v>
+        <v>33.88434219360352</v>
       </c>
     </row>
     <row r="329">
@@ -4052,10 +4052,10 @@
         <v>328</v>
       </c>
       <c r="B329" t="n">
-        <v>82.42133331298828</v>
+        <v>27.52685737609863</v>
       </c>
       <c r="C329" t="n">
-        <v>230.1849365234375</v>
+        <v>35.48978805541992</v>
       </c>
     </row>
     <row r="330">
@@ -4063,10 +4063,10 @@
         <v>329</v>
       </c>
       <c r="B330" t="n">
-        <v>85.38813018798828</v>
+        <v>26.23848533630371</v>
       </c>
       <c r="C330" t="n">
-        <v>254.0385589599609</v>
+        <v>33.60680770874023</v>
       </c>
     </row>
     <row r="331">
@@ -4074,10 +4074,10 @@
         <v>330</v>
       </c>
       <c r="B331" t="n">
-        <v>80.90996551513672</v>
+        <v>26.01605796813965</v>
       </c>
       <c r="C331" t="n">
-        <v>208.0197601318359</v>
+        <v>31.59794044494629</v>
       </c>
     </row>
     <row r="332">
@@ -4085,10 +4085,10 @@
         <v>331</v>
       </c>
       <c r="B332" t="n">
-        <v>69.27556610107422</v>
+        <v>31.20612525939941</v>
       </c>
       <c r="C332" t="n">
-        <v>240.1672821044922</v>
+        <v>44.96204376220703</v>
       </c>
     </row>
     <row r="333">
@@ -4096,10 +4096,10 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>84.42478942871094</v>
+        <v>40.53842163085938</v>
       </c>
       <c r="C333" t="n">
-        <v>282.6384887695312</v>
+        <v>39.55307006835938</v>
       </c>
     </row>
     <row r="334">
@@ -4107,10 +4107,10 @@
         <v>333</v>
       </c>
       <c r="B334" t="n">
-        <v>80.00948333740234</v>
+        <v>27.48131942749023</v>
       </c>
       <c r="C334" t="n">
-        <v>257.4986267089844</v>
+        <v>24.0578670501709</v>
       </c>
     </row>
     <row r="335">
@@ -4118,10 +4118,10 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>65.8406982421875</v>
+        <v>29.17170143127441</v>
       </c>
       <c r="C335" t="n">
-        <v>237.1129455566406</v>
+        <v>40.80368041992188</v>
       </c>
     </row>
     <row r="336">
@@ -4129,10 +4129,10 @@
         <v>335</v>
       </c>
       <c r="B336" t="n">
-        <v>73.82834625244141</v>
+        <v>31.68954658508301</v>
       </c>
       <c r="C336" t="n">
-        <v>244.8265075683594</v>
+        <v>39.07708740234375</v>
       </c>
     </row>
     <row r="337">
@@ -4140,10 +4140,10 @@
         <v>336</v>
       </c>
       <c r="B337" t="n">
-        <v>67.24581146240234</v>
+        <v>30.46865653991699</v>
       </c>
       <c r="C337" t="n">
-        <v>226.3722839355469</v>
+        <v>36.86410140991211</v>
       </c>
     </row>
     <row r="338">
@@ -4151,10 +4151,10 @@
         <v>337</v>
       </c>
       <c r="B338" t="n">
-        <v>60.44753646850586</v>
+        <v>36.29832077026367</v>
       </c>
       <c r="C338" t="n">
-        <v>196.3029937744141</v>
+        <v>43.6875</v>
       </c>
     </row>
     <row r="339">
@@ -4162,10 +4162,10 @@
         <v>338</v>
       </c>
       <c r="B339" t="n">
-        <v>66.12409973144531</v>
+        <v>30.48634910583496</v>
       </c>
       <c r="C339" t="n">
-        <v>239.7659149169922</v>
+        <v>28.79082870483398</v>
       </c>
     </row>
     <row r="340">
@@ -4173,10 +4173,10 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>60.56971740722656</v>
+        <v>26.46238899230957</v>
       </c>
       <c r="C340" t="n">
-        <v>213.1826782226562</v>
+        <v>28.7480525970459</v>
       </c>
     </row>
     <row r="341">
@@ -4184,10 +4184,10 @@
         <v>340</v>
       </c>
       <c r="B341" t="n">
-        <v>53.50173187255859</v>
+        <v>25.54604148864746</v>
       </c>
       <c r="C341" t="n">
-        <v>233.1867523193359</v>
+        <v>32.10200881958008</v>
       </c>
     </row>
     <row r="342">
@@ -4195,10 +4195,10 @@
         <v>341</v>
       </c>
       <c r="B342" t="n">
-        <v>75.06129455566406</v>
+        <v>29.56795501708984</v>
       </c>
       <c r="C342" t="n">
-        <v>215.5504150390625</v>
+        <v>25.2717342376709</v>
       </c>
     </row>
     <row r="343">
@@ -4206,10 +4206,10 @@
         <v>342</v>
       </c>
       <c r="B343" t="n">
-        <v>74.22110748291016</v>
+        <v>33.29768371582031</v>
       </c>
       <c r="C343" t="n">
-        <v>226.287841796875</v>
+        <v>38.04737854003906</v>
       </c>
     </row>
     <row r="344">
@@ -4217,10 +4217,10 @@
         <v>343</v>
       </c>
       <c r="B344" t="n">
-        <v>75.17899322509766</v>
+        <v>37.07401275634766</v>
       </c>
       <c r="C344" t="n">
-        <v>222.7077941894531</v>
+        <v>33.8276252746582</v>
       </c>
     </row>
     <row r="345">
@@ -4228,10 +4228,10 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
-        <v>102.6831970214844</v>
+        <v>28.42872619628906</v>
       </c>
       <c r="C345" t="n">
-        <v>217.8927459716797</v>
+        <v>26.68749809265137</v>
       </c>
     </row>
     <row r="346">
@@ -4239,10 +4239,10 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>103.3498001098633</v>
+        <v>27.84128570556641</v>
       </c>
       <c r="C346" t="n">
-        <v>272.57666015625</v>
+        <v>39.36006927490234</v>
       </c>
     </row>
     <row r="347">
@@ -4250,10 +4250,10 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>89.09934997558594</v>
+        <v>30.34235000610352</v>
       </c>
       <c r="C347" t="n">
-        <v>230.2146301269531</v>
+        <v>39.76586151123047</v>
       </c>
     </row>
     <row r="348">
@@ -4261,10 +4261,10 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
-        <v>110.7398681640625</v>
+        <v>38.58205032348633</v>
       </c>
       <c r="C348" t="n">
-        <v>320.1437377929688</v>
+        <v>33.20425033569336</v>
       </c>
     </row>
     <row r="349">
@@ -4272,10 +4272,10 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>123.4620819091797</v>
+        <v>26.71188926696777</v>
       </c>
       <c r="C349" t="n">
-        <v>237.7661590576172</v>
+        <v>35.40559005737305</v>
       </c>
     </row>
     <row r="350">
@@ -4283,10 +4283,10 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>93.22943115234375</v>
+        <v>25.47793579101562</v>
       </c>
       <c r="C350" t="n">
-        <v>256.77001953125</v>
+        <v>26.07796096801758</v>
       </c>
     </row>
     <row r="351">
@@ -4294,10 +4294,10 @@
         <v>350</v>
       </c>
       <c r="B351" t="n">
-        <v>82.66170501708984</v>
+        <v>25.77398300170898</v>
       </c>
       <c r="C351" t="n">
-        <v>254.8432769775391</v>
+        <v>29.23153877258301</v>
       </c>
     </row>
     <row r="352">
@@ -4305,10 +4305,10 @@
         <v>351</v>
       </c>
       <c r="B352" t="n">
-        <v>89.52653503417969</v>
+        <v>30.8726806640625</v>
       </c>
       <c r="C352" t="n">
-        <v>212.5686340332031</v>
+        <v>30.96695327758789</v>
       </c>
     </row>
     <row r="353">
@@ -4316,10 +4316,10 @@
         <v>352</v>
       </c>
       <c r="B353" t="n">
-        <v>84.19602966308594</v>
+        <v>26.97161674499512</v>
       </c>
       <c r="C353" t="n">
-        <v>237.1317749023438</v>
+        <v>29.73239898681641</v>
       </c>
     </row>
     <row r="354">
@@ -4327,10 +4327,10 @@
         <v>353</v>
       </c>
       <c r="B354" t="n">
-        <v>64.37571716308594</v>
+        <v>34.93651962280273</v>
       </c>
       <c r="C354" t="n">
-        <v>202.4131317138672</v>
+        <v>26.28285217285156</v>
       </c>
     </row>
     <row r="355">
@@ -4338,10 +4338,10 @@
         <v>354</v>
       </c>
       <c r="B355" t="n">
-        <v>53.80261993408203</v>
+        <v>26.8023567199707</v>
       </c>
       <c r="C355" t="n">
-        <v>208.6018218994141</v>
+        <v>28.88949966430664</v>
       </c>
     </row>
     <row r="356">
@@ -4349,10 +4349,10 @@
         <v>355</v>
       </c>
       <c r="B356" t="n">
-        <v>62.43272018432617</v>
+        <v>24.87781143188477</v>
       </c>
       <c r="C356" t="n">
-        <v>219.152587890625</v>
+        <v>31.33647918701172</v>
       </c>
     </row>
     <row r="357">
@@ -4360,10 +4360,10 @@
         <v>356</v>
       </c>
       <c r="B357" t="n">
-        <v>67.29460144042969</v>
+        <v>27.5180778503418</v>
       </c>
       <c r="C357" t="n">
-        <v>207.4954681396484</v>
+        <v>35.19096755981445</v>
       </c>
     </row>
     <row r="358">
@@ -4371,10 +4371,10 @@
         <v>357</v>
       </c>
       <c r="B358" t="n">
-        <v>59.58699798583984</v>
+        <v>27.73013114929199</v>
       </c>
       <c r="C358" t="n">
-        <v>205.286376953125</v>
+        <v>46.60837173461914</v>
       </c>
     </row>
     <row r="359">
@@ -4382,10 +4382,10 @@
         <v>358</v>
       </c>
       <c r="B359" t="n">
-        <v>58.29814147949219</v>
+        <v>29.6414852142334</v>
       </c>
       <c r="C359" t="n">
-        <v>248.9730072021484</v>
+        <v>75.11405181884766</v>
       </c>
     </row>
     <row r="360">
@@ -4393,10 +4393,10 @@
         <v>359</v>
       </c>
       <c r="B360" t="n">
-        <v>68.60926818847656</v>
+        <v>36.06405639648438</v>
       </c>
       <c r="C360" t="n">
-        <v>211.225830078125</v>
+        <v>32.06137847900391</v>
       </c>
     </row>
     <row r="361">
@@ -4404,10 +4404,10 @@
         <v>360</v>
       </c>
       <c r="B361" t="n">
-        <v>70.74376678466797</v>
+        <v>29.94486045837402</v>
       </c>
       <c r="C361" t="n">
-        <v>235.8057556152344</v>
+        <v>25.84173393249512</v>
       </c>
     </row>
     <row r="362">
@@ -4415,10 +4415,10 @@
         <v>361</v>
       </c>
       <c r="B362" t="n">
-        <v>62.06597518920898</v>
+        <v>24.57060432434082</v>
       </c>
       <c r="C362" t="n">
-        <v>203.3991241455078</v>
+        <v>25.43593597412109</v>
       </c>
     </row>
     <row r="363">
@@ -4426,10 +4426,10 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
-        <v>62.67309951782227</v>
+        <v>27.44821739196777</v>
       </c>
       <c r="C363" t="n">
-        <v>234.7645263671875</v>
+        <v>25.96994781494141</v>
       </c>
     </row>
     <row r="364">
@@ -4437,10 +4437,10 @@
         <v>363</v>
       </c>
       <c r="B364" t="n">
-        <v>63.48407745361328</v>
+        <v>24.67372894287109</v>
       </c>
       <c r="C364" t="n">
-        <v>221.2808380126953</v>
+        <v>31.22701263427734</v>
       </c>
     </row>
     <row r="365">
@@ -4448,10 +4448,10 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>58.93339157104492</v>
+        <v>24.0047721862793</v>
       </c>
       <c r="C365" t="n">
-        <v>227.1194305419922</v>
+        <v>27.66679382324219</v>
       </c>
     </row>
     <row r="366">
@@ -4459,10 +4459,10 @@
         <v>365</v>
       </c>
       <c r="B366" t="n">
-        <v>60.56983184814453</v>
+        <v>24.79801940917969</v>
       </c>
       <c r="C366" t="n">
-        <v>250.2473602294922</v>
+        <v>35.78745651245117</v>
       </c>
     </row>
     <row r="367">
@@ -4470,10 +4470,10 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
-        <v>56.17800140380859</v>
+        <v>26.50195503234863</v>
       </c>
       <c r="C367" t="n">
-        <v>222.9649200439453</v>
+        <v>32.84272766113281</v>
       </c>
     </row>
     <row r="368">
@@ -4481,10 +4481,10 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>75.00734710693359</v>
+        <v>28.40564346313477</v>
       </c>
       <c r="C368" t="n">
-        <v>242.0229949951172</v>
+        <v>38.62669372558594</v>
       </c>
     </row>
     <row r="369">
@@ -4492,10 +4492,10 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>58.09831619262695</v>
+        <v>33.52659606933594</v>
       </c>
       <c r="C369" t="n">
-        <v>207.4941253662109</v>
+        <v>57.56937408447266</v>
       </c>
     </row>
     <row r="370">
@@ -4503,10 +4503,10 @@
         <v>369</v>
       </c>
       <c r="B370" t="n">
-        <v>47.96552276611328</v>
+        <v>33.98986053466797</v>
       </c>
       <c r="C370" t="n">
-        <v>221.5485076904297</v>
+        <v>32.81684494018555</v>
       </c>
     </row>
     <row r="371">
@@ -4514,10 +4514,10 @@
         <v>370</v>
       </c>
       <c r="B371" t="n">
-        <v>59.66108703613281</v>
+        <v>28.6771183013916</v>
       </c>
       <c r="C371" t="n">
-        <v>217.0827484130859</v>
+        <v>45.51068878173828</v>
       </c>
     </row>
     <row r="372">
@@ -4525,10 +4525,10 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>51.40185546875</v>
+        <v>29.98752784729004</v>
       </c>
       <c r="C372" t="n">
-        <v>212.6467437744141</v>
+        <v>28.30753326416016</v>
       </c>
     </row>
     <row r="373">
@@ -4536,10 +4536,10 @@
         <v>372</v>
       </c>
       <c r="B373" t="n">
-        <v>63.59936904907227</v>
+        <v>28.73304748535156</v>
       </c>
       <c r="C373" t="n">
-        <v>210.6831665039062</v>
+        <v>32.30800628662109</v>
       </c>
     </row>
     <row r="374">
@@ -4547,10 +4547,10 @@
         <v>373</v>
       </c>
       <c r="B374" t="n">
-        <v>60.55998229980469</v>
+        <v>25.22538375854492</v>
       </c>
       <c r="C374" t="n">
-        <v>225.4476013183594</v>
+        <v>35.26873397827148</v>
       </c>
     </row>
     <row r="375">
@@ -4558,10 +4558,10 @@
         <v>374</v>
       </c>
       <c r="B375" t="n">
-        <v>46.88913345336914</v>
+        <v>26.02756881713867</v>
       </c>
       <c r="C375" t="n">
-        <v>214.2883148193359</v>
+        <v>28.27670288085938</v>
       </c>
     </row>
     <row r="376">
@@ -4569,10 +4569,10 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>44.51188278198242</v>
+        <v>23.82613182067871</v>
       </c>
       <c r="C376" t="n">
-        <v>205.1077423095703</v>
+        <v>25.49264335632324</v>
       </c>
     </row>
     <row r="377">
@@ -4580,10 +4580,10 @@
         <v>376</v>
       </c>
       <c r="B377" t="n">
-        <v>44.99897766113281</v>
+        <v>21.96384811401367</v>
       </c>
       <c r="C377" t="n">
-        <v>243.5531768798828</v>
+        <v>54.54520416259766</v>
       </c>
     </row>
     <row r="378">
@@ -4591,10 +4591,10 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>62.32452392578125</v>
+        <v>31.32509613037109</v>
       </c>
       <c r="C378" t="n">
-        <v>192.9436340332031</v>
+        <v>37.27346038818359</v>
       </c>
     </row>
     <row r="379">
@@ -4602,10 +4602,10 @@
         <v>378</v>
       </c>
       <c r="B379" t="n">
-        <v>59.99073028564453</v>
+        <v>28.52182388305664</v>
       </c>
       <c r="C379" t="n">
-        <v>220.0955963134766</v>
+        <v>29.87161636352539</v>
       </c>
     </row>
     <row r="380">
@@ -4613,10 +4613,10 @@
         <v>379</v>
       </c>
       <c r="B380" t="n">
-        <v>50.6807746887207</v>
+        <v>31.42688369750977</v>
       </c>
       <c r="C380" t="n">
-        <v>209.5555725097656</v>
+        <v>25.1945629119873</v>
       </c>
     </row>
     <row r="381">
@@ -4624,10 +4624,10 @@
         <v>380</v>
       </c>
       <c r="B381" t="n">
-        <v>83.33052062988281</v>
+        <v>26.95147514343262</v>
       </c>
       <c r="C381" t="n">
-        <v>286.3894348144531</v>
+        <v>34.33098602294922</v>
       </c>
     </row>
     <row r="382">
@@ -4635,10 +4635,10 @@
         <v>381</v>
       </c>
       <c r="B382" t="n">
-        <v>109.966911315918</v>
+        <v>28.06657791137695</v>
       </c>
       <c r="C382" t="n">
-        <v>234.2313537597656</v>
+        <v>24.8504695892334</v>
       </c>
     </row>
     <row r="383">
@@ -4646,10 +4646,10 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>89.93096923828125</v>
+        <v>25.87598991394043</v>
       </c>
       <c r="C383" t="n">
-        <v>231.3508758544922</v>
+        <v>42.39398574829102</v>
       </c>
     </row>
     <row r="384">
@@ -4657,10 +4657,10 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
-        <v>74.83364105224609</v>
+        <v>28.26889419555664</v>
       </c>
       <c r="C384" t="n">
-        <v>256.5993957519531</v>
+        <v>22.4676628112793</v>
       </c>
     </row>
     <row r="385">
@@ -4668,10 +4668,10 @@
         <v>384</v>
       </c>
       <c r="B385" t="n">
-        <v>62.2947883605957</v>
+        <v>27.36216926574707</v>
       </c>
       <c r="C385" t="n">
-        <v>217.1901397705078</v>
+        <v>34.9013671875</v>
       </c>
     </row>
     <row r="386">
@@ -4679,10 +4679,10 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>79.74092864990234</v>
+        <v>30.47135162353516</v>
       </c>
       <c r="C386" t="n">
-        <v>250.8959808349609</v>
+        <v>32.55068969726562</v>
       </c>
     </row>
     <row r="387">
@@ -4690,10 +4690,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="n">
-        <v>104.9878387451172</v>
+        <v>29.77302169799805</v>
       </c>
       <c r="C387" t="n">
-        <v>239.5203094482422</v>
+        <v>38.74877548217773</v>
       </c>
     </row>
     <row r="388">
@@ -4701,10 +4701,10 @@
         <v>387</v>
       </c>
       <c r="B388" t="n">
-        <v>111.3792114257812</v>
+        <v>31.7204532623291</v>
       </c>
       <c r="C388" t="n">
-        <v>277.4623107910156</v>
+        <v>34.72532653808594</v>
       </c>
     </row>
     <row r="389">
@@ -4712,10 +4712,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>85.21229553222656</v>
+        <v>25.54686546325684</v>
       </c>
       <c r="C389" t="n">
-        <v>257.7523498535156</v>
+        <v>39.39804077148438</v>
       </c>
     </row>
     <row r="390">
@@ -4723,10 +4723,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="n">
-        <v>94.27860260009766</v>
+        <v>28.99689292907715</v>
       </c>
       <c r="C390" t="n">
-        <v>215.330078125</v>
+        <v>37.00387191772461</v>
       </c>
     </row>
     <row r="391">
@@ -4734,10 +4734,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="n">
-        <v>119.1982192993164</v>
+        <v>26.8077392578125</v>
       </c>
       <c r="C391" t="n">
-        <v>267.0956420898438</v>
+        <v>30.59345054626465</v>
       </c>
     </row>
     <row r="392">
@@ -4745,10 +4745,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="n">
-        <v>131.73095703125</v>
+        <v>28.42007064819336</v>
       </c>
       <c r="C392" t="n">
-        <v>268.5503540039062</v>
+        <v>23.83829498291016</v>
       </c>
     </row>
     <row r="393">
@@ -4756,10 +4756,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="n">
-        <v>103.3481750488281</v>
+        <v>23.93061065673828</v>
       </c>
       <c r="C393" t="n">
-        <v>242.8633270263672</v>
+        <v>27.84070587158203</v>
       </c>
     </row>
     <row r="394">
@@ -4767,10 +4767,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="n">
-        <v>77.06375885009766</v>
+        <v>24.37989807128906</v>
       </c>
       <c r="C394" t="n">
-        <v>280.6954650878906</v>
+        <v>31.65009117126465</v>
       </c>
     </row>
     <row r="395">
@@ -4778,10 +4778,10 @@
         <v>394</v>
       </c>
       <c r="B395" t="n">
-        <v>91.4154052734375</v>
+        <v>33.45712661743164</v>
       </c>
       <c r="C395" t="n">
-        <v>246.9208221435547</v>
+        <v>73.45669555664062</v>
       </c>
     </row>
     <row r="396">
@@ -4789,10 +4789,10 @@
         <v>395</v>
       </c>
       <c r="B396" t="n">
-        <v>104.6713714599609</v>
+        <v>33.93286514282227</v>
       </c>
       <c r="C396" t="n">
-        <v>266.6283569335938</v>
+        <v>74.03726959228516</v>
       </c>
     </row>
     <row r="397">
@@ -4800,10 +4800,10 @@
         <v>396</v>
       </c>
       <c r="B397" t="n">
-        <v>72.20487213134766</v>
+        <v>37.84554290771484</v>
       </c>
       <c r="C397" t="n">
-        <v>234.8898010253906</v>
+        <v>30.15839576721191</v>
       </c>
     </row>
     <row r="398">
@@ -4811,10 +4811,10 @@
         <v>397</v>
       </c>
       <c r="B398" t="n">
-        <v>57.02303695678711</v>
+        <v>27.9438591003418</v>
       </c>
       <c r="C398" t="n">
-        <v>259.2328491210938</v>
+        <v>34.33540725708008</v>
       </c>
     </row>
     <row r="399">
@@ -4822,10 +4822,10 @@
         <v>398</v>
       </c>
       <c r="B399" t="n">
-        <v>55.20795822143555</v>
+        <v>27.23356437683105</v>
       </c>
       <c r="C399" t="n">
-        <v>215.4363861083984</v>
+        <v>31.40163993835449</v>
       </c>
     </row>
     <row r="400">
@@ -4833,10 +4833,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="n">
-        <v>46.40386199951172</v>
+        <v>28.45091819763184</v>
       </c>
       <c r="C400" t="n">
-        <v>215.7553558349609</v>
+        <v>34.43581008911133</v>
       </c>
     </row>
     <row r="401">
@@ -4844,10 +4844,10 @@
         <v>400</v>
       </c>
       <c r="B401" t="n">
-        <v>40.92619323730469</v>
+        <v>24.90874099731445</v>
       </c>
       <c r="C401" t="n">
-        <v>224.8317413330078</v>
+        <v>31.53899765014648</v>
       </c>
     </row>
     <row r="402">
@@ -4855,10 +4855,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="n">
-        <v>49.36547088623047</v>
+        <v>26.20796394348145</v>
       </c>
       <c r="C402" t="n">
-        <v>216.6228790283203</v>
+        <v>31.7058277130127</v>
       </c>
     </row>
     <row r="403">
@@ -4866,10 +4866,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="n">
-        <v>44.44910430908203</v>
+        <v>27.54978179931641</v>
       </c>
       <c r="C403" t="n">
-        <v>224.2733764648438</v>
+        <v>67.40183258056641</v>
       </c>
     </row>
     <row r="404">
@@ -4877,10 +4877,10 @@
         <v>403</v>
       </c>
       <c r="B404" t="n">
-        <v>40.13555526733398</v>
+        <v>34.88156890869141</v>
       </c>
       <c r="C404" t="n">
-        <v>209.7566680908203</v>
+        <v>52.64461135864258</v>
       </c>
     </row>
     <row r="405">
@@ -4888,10 +4888,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>42.34507369995117</v>
+        <v>39.65884780883789</v>
       </c>
       <c r="C405" t="n">
-        <v>215.7698516845703</v>
+        <v>99.36704254150391</v>
       </c>
     </row>
     <row r="406">
@@ -4899,10 +4899,10 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>58.98466491699219</v>
+        <v>44.78858947753906</v>
       </c>
       <c r="C406" t="n">
-        <v>218.6954040527344</v>
+        <v>45.67020416259766</v>
       </c>
     </row>
     <row r="407">
@@ -4910,10 +4910,10 @@
         <v>406</v>
       </c>
       <c r="B407" t="n">
-        <v>58.10052871704102</v>
+        <v>31.75330924987793</v>
       </c>
       <c r="C407" t="n">
-        <v>248.8697967529297</v>
+        <v>30.23722839355469</v>
       </c>
     </row>
     <row r="408">
@@ -4921,10 +4921,10 @@
         <v>407</v>
       </c>
       <c r="B408" t="n">
-        <v>65.12521362304688</v>
+        <v>25.84898567199707</v>
       </c>
       <c r="C408" t="n">
-        <v>211.6202697753906</v>
+        <v>33.34479904174805</v>
       </c>
     </row>
     <row r="409">
@@ -4932,10 +4932,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="n">
-        <v>88.02352142333984</v>
+        <v>29.80433464050293</v>
       </c>
       <c r="C409" t="n">
-        <v>210.1271362304688</v>
+        <v>43.79541778564453</v>
       </c>
     </row>
     <row r="410">
@@ -4943,10 +4943,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="n">
-        <v>61.3445930480957</v>
+        <v>27.05655479431152</v>
       </c>
       <c r="C410" t="n">
-        <v>236.3506164550781</v>
+        <v>33.12213134765625</v>
       </c>
     </row>
     <row r="411">
@@ -4954,10 +4954,10 @@
         <v>410</v>
       </c>
       <c r="B411" t="n">
-        <v>51.95969390869141</v>
+        <v>24.15420913696289</v>
       </c>
       <c r="C411" t="n">
-        <v>196.4483337402344</v>
+        <v>32.15914535522461</v>
       </c>
     </row>
     <row r="412">
@@ -4965,10 +4965,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="n">
-        <v>54.18876266479492</v>
+        <v>23.47674942016602</v>
       </c>
       <c r="C412" t="n">
-        <v>236.1853790283203</v>
+        <v>35.86569595336914</v>
       </c>
     </row>
     <row r="413">
@@ -4976,10 +4976,10 @@
         <v>412</v>
       </c>
       <c r="B413" t="n">
-        <v>61.79932403564453</v>
+        <v>27.95870399475098</v>
       </c>
       <c r="C413" t="n">
-        <v>245.8020172119141</v>
+        <v>30.41295051574707</v>
       </c>
     </row>
     <row r="414">
@@ -4987,10 +4987,10 @@
         <v>413</v>
       </c>
       <c r="B414" t="n">
-        <v>81.23125457763672</v>
+        <v>29.34477806091309</v>
       </c>
       <c r="C414" t="n">
-        <v>264.8312683105469</v>
+        <v>28.31750297546387</v>
       </c>
     </row>
     <row r="415">
@@ -4998,10 +4998,10 @@
         <v>414</v>
       </c>
       <c r="B415" t="n">
-        <v>72.84707641601562</v>
+        <v>26.55760765075684</v>
       </c>
       <c r="C415" t="n">
-        <v>237.004638671875</v>
+        <v>38.13586044311523</v>
       </c>
     </row>
     <row r="416">
@@ -5009,10 +5009,10 @@
         <v>415</v>
       </c>
       <c r="B416" t="n">
-        <v>51.30256652832031</v>
+        <v>28.51342964172363</v>
       </c>
       <c r="C416" t="n">
-        <v>212.0431823730469</v>
+        <v>26.77139472961426</v>
       </c>
     </row>
     <row r="417">
@@ -5020,10 +5020,10 @@
         <v>416</v>
       </c>
       <c r="B417" t="n">
-        <v>45.35820770263672</v>
+        <v>25.69186973571777</v>
       </c>
       <c r="C417" t="n">
-        <v>240.7732086181641</v>
+        <v>39.40674209594727</v>
       </c>
     </row>
     <row r="418">
@@ -5031,10 +5031,10 @@
         <v>417</v>
       </c>
       <c r="B418" t="n">
-        <v>54.6508674621582</v>
+        <v>29.63351249694824</v>
       </c>
       <c r="C418" t="n">
-        <v>225.3216857910156</v>
+        <v>36.04220199584961</v>
       </c>
     </row>
     <row r="419">
@@ -5042,10 +5042,10 @@
         <v>418</v>
       </c>
       <c r="B419" t="n">
-        <v>55.53120422363281</v>
+        <v>25.33589935302734</v>
       </c>
       <c r="C419" t="n">
-        <v>222.5857391357422</v>
+        <v>28.6181468963623</v>
       </c>
     </row>
     <row r="420">
@@ -5053,10 +5053,10 @@
         <v>419</v>
       </c>
       <c r="B420" t="n">
-        <v>42.74372863769531</v>
+        <v>25.40545845031738</v>
       </c>
       <c r="C420" t="n">
-        <v>218.4467620849609</v>
+        <v>28.89190673828125</v>
       </c>
     </row>
     <row r="421">
@@ -5064,10 +5064,10 @@
         <v>420</v>
       </c>
       <c r="B421" t="n">
-        <v>40.7025032043457</v>
+        <v>24.11468505859375</v>
       </c>
       <c r="C421" t="n">
-        <v>199.1001892089844</v>
+        <v>31.36727905273438</v>
       </c>
     </row>
     <row r="422">
@@ -5075,10 +5075,10 @@
         <v>421</v>
       </c>
       <c r="B422" t="n">
-        <v>43.42551040649414</v>
+        <v>27.7757625579834</v>
       </c>
       <c r="C422" t="n">
-        <v>230.8930206298828</v>
+        <v>36.96054840087891</v>
       </c>
     </row>
     <row r="423">
@@ -5086,10 +5086,10 @@
         <v>422</v>
       </c>
       <c r="B423" t="n">
-        <v>43.73603439331055</v>
+        <v>26.47524833679199</v>
       </c>
       <c r="C423" t="n">
-        <v>221.4313812255859</v>
+        <v>25.83488655090332</v>
       </c>
     </row>
     <row r="424">
@@ -5097,10 +5097,10 @@
         <v>423</v>
       </c>
       <c r="B424" t="n">
-        <v>52.40449905395508</v>
+        <v>23.4295654296875</v>
       </c>
       <c r="C424" t="n">
-        <v>195.43505859375</v>
+        <v>28.04898071289062</v>
       </c>
     </row>
     <row r="425">
@@ -5108,10 +5108,10 @@
         <v>424</v>
       </c>
       <c r="B425" t="n">
-        <v>66.45286560058594</v>
+        <v>26.61444473266602</v>
       </c>
       <c r="C425" t="n">
-        <v>210.0348358154297</v>
+        <v>28.18655967712402</v>
       </c>
     </row>
     <row r="426">
@@ -5119,10 +5119,10 @@
         <v>425</v>
       </c>
       <c r="B426" t="n">
-        <v>82.72171020507812</v>
+        <v>27.92438316345215</v>
       </c>
       <c r="C426" t="n">
-        <v>292.8512878417969</v>
+        <v>31.2041072845459</v>
       </c>
     </row>
     <row r="427">
@@ -5130,10 +5130,10 @@
         <v>426</v>
       </c>
       <c r="B427" t="n">
-        <v>92.61204528808594</v>
+        <v>29.64327621459961</v>
       </c>
       <c r="C427" t="n">
-        <v>270.4348754882812</v>
+        <v>29.35039138793945</v>
       </c>
     </row>
     <row r="428">
@@ -5141,10 +5141,76 @@
         <v>427</v>
       </c>
       <c r="B428" t="n">
-        <v>86.32848358154297</v>
+        <v>24.42397117614746</v>
       </c>
       <c r="C428" t="n">
-        <v>264.9499816894531</v>
+        <v>26.65113830566406</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>428</v>
+      </c>
+      <c r="B429" t="n">
+        <v>22.56464385986328</v>
+      </c>
+      <c r="C429" t="n">
+        <v>29.60505867004395</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>429</v>
+      </c>
+      <c r="B430" t="n">
+        <v>24.38385772705078</v>
+      </c>
+      <c r="C430" t="n">
+        <v>32.80229949951172</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>430</v>
+      </c>
+      <c r="B431" t="n">
+        <v>25.69364356994629</v>
+      </c>
+      <c r="C431" t="n">
+        <v>30.41098976135254</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>431</v>
+      </c>
+      <c r="B432" t="n">
+        <v>26.38121795654297</v>
+      </c>
+      <c r="C432" t="n">
+        <v>28.59218978881836</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>432</v>
+      </c>
+      <c r="B433" t="n">
+        <v>26.68766021728516</v>
+      </c>
+      <c r="C433" t="n">
+        <v>27.58633041381836</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>433</v>
+      </c>
+      <c r="B434" t="n">
+        <v>24.58695793151855</v>
+      </c>
+      <c r="C434" t="n">
+        <v>26.23544883728027</v>
       </c>
     </row>
   </sheetData>
